--- a/raw_data/20200818_saline/20200818_Sensor3_Test_69.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_69.xlsx
@@ -1,975 +1,1391 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CAAF26-19FB-453D-893C-F846FB227BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>61761.049644</v>
+        <v>61761.049643999999</v>
       </c>
       <c r="B2" s="1">
-        <v>17.155847</v>
+        <v>17.155847000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1156.890000</v>
+        <v>1156.8900000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-239.068000</v>
+        <v>-239.06800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>61771.123392</v>
+        <v>61771.123392000001</v>
       </c>
       <c r="G2" s="1">
         <v>17.158645</v>
       </c>
       <c r="H2" s="1">
-        <v>1173.970000</v>
+        <v>1173.97</v>
       </c>
       <c r="I2" s="1">
-        <v>-198.251000</v>
+        <v>-198.251</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>61781.308989</v>
+        <v>61781.308988999997</v>
       </c>
       <c r="L2" s="1">
-        <v>17.161475</v>
+        <v>17.161474999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1198.460000</v>
+        <v>1198.46</v>
       </c>
       <c r="N2" s="1">
-        <v>-139.811000</v>
+        <v>-139.81100000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>61791.481222</v>
+        <v>61791.481222000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.164300</v>
+        <v>17.164300000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1205.410000</v>
+        <v>1205.4100000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-119.932000</v>
+        <v>-119.932</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>61802.064860</v>
+        <v>61802.064859999999</v>
       </c>
       <c r="V2" s="1">
-        <v>17.167240</v>
+        <v>17.16724</v>
       </c>
       <c r="W2" s="1">
-        <v>1212.270000</v>
+        <v>1212.27</v>
       </c>
       <c r="X2" s="1">
-        <v>-101.367000</v>
+        <v>-101.367</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>61812.545288</v>
+        <v>61812.545288000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.170151</v>
+        <v>17.170151000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1219.350000</v>
+        <v>1219.3499999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-86.352400</v>
+        <v>-86.352400000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>61823.096718</v>
+        <v>61823.096718000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.173082</v>
+        <v>17.173082000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="AH2" s="1">
-        <v>-83.168800</v>
+        <v>-83.168800000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>61833.528540</v>
+        <v>61833.528539999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.175980</v>
+        <v>17.175979999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.866700</v>
+        <v>-87.866699999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>61844.134034</v>
+        <v>61844.134034000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.178926</v>
+        <v>17.178926000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.541000</v>
+        <v>-100.541</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>61855.478000</v>
+        <v>61855.478000000003</v>
       </c>
       <c r="AU2" s="1">
         <v>17.182077</v>
       </c>
       <c r="AV2" s="1">
-        <v>1248.600000</v>
+        <v>1248.5999999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.332000</v>
+        <v>-120.33199999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>61866.539281</v>
+        <v>61866.539280999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.185150</v>
+        <v>17.18515</v>
       </c>
       <c r="BA2" s="1">
-        <v>1256.950000</v>
+        <v>1256.95</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.154000</v>
+        <v>-138.154</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>61877.516907</v>
+        <v>61877.516906999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>17.188199</v>
+        <v>17.188199000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.390000</v>
+        <v>1297.3900000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.845000</v>
+        <v>-221.845</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>61888.587443</v>
+        <v>61888.587442999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>17.191274</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.540000</v>
+        <v>1368.54</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.863000</v>
+        <v>-359.863</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>61900.418516</v>
+        <v>61900.418515999998</v>
       </c>
       <c r="BO2" s="1">
         <v>17.194561</v>
       </c>
       <c r="BP2" s="1">
-        <v>1485.920000</v>
+        <v>1485.92</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-582.531000</v>
+        <v>-582.53099999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>61911.446069</v>
+        <v>61911.446068999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.197624</v>
+        <v>17.197624000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.790000</v>
+        <v>1620.79</v>
       </c>
       <c r="BV2" s="1">
-        <v>-832.597000</v>
+        <v>-832.59699999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>61921.817415</v>
+        <v>61921.817414999998</v>
       </c>
       <c r="BY2" s="1">
         <v>17.200505</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1775.700000</v>
+        <v>1775.7</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1102.210000</v>
+        <v>-1102.21</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>61932.734362</v>
+        <v>61932.734362000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.203537</v>
+        <v>17.203537000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2195.720000</v>
+        <v>2195.7199999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1753.980000</v>
+        <v>-1753.98</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>61761.417708</v>
+        <v>61761.417708000001</v>
       </c>
       <c r="B3" s="1">
         <v>17.155949</v>
       </c>
       <c r="C3" s="1">
-        <v>1157.100000</v>
+        <v>1157.0999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-238.555000</v>
+        <v>-238.55500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>61771.505807</v>
+        <v>61771.505807000001</v>
       </c>
       <c r="G3" s="1">
         <v>17.158752</v>
       </c>
       <c r="H3" s="1">
-        <v>1175.240000</v>
+        <v>1175.24</v>
       </c>
       <c r="I3" s="1">
-        <v>-197.616000</v>
+        <v>-197.61600000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>61781.727393</v>
+        <v>61781.727393000001</v>
       </c>
       <c r="L3" s="1">
-        <v>17.161591</v>
+        <v>17.161591000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1198.480000</v>
+        <v>1198.48</v>
       </c>
       <c r="N3" s="1">
-        <v>-139.852000</v>
+        <v>-139.852</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>61791.904771</v>
+        <v>61791.904771000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.164418</v>
+        <v>17.164418000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1205.410000</v>
+        <v>1205.4100000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-120.081000</v>
+        <v>-120.081</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>61802.466086</v>
       </c>
       <c r="V3" s="1">
-        <v>17.167352</v>
+        <v>17.167352000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1212.070000</v>
+        <v>1212.07</v>
       </c>
       <c r="X3" s="1">
-        <v>-101.281000</v>
+        <v>-101.28100000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>61812.908887</v>
+        <v>61812.908886999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.170252</v>
+        <v>17.170252000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1219.290000</v>
+        <v>1219.29</v>
       </c>
       <c r="AC3" s="1">
-        <v>-86.321300</v>
+        <v>-86.321299999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>61823.465706</v>
+        <v>61823.465706000003</v>
       </c>
       <c r="AF3" s="1">
         <v>17.173185</v>
       </c>
       <c r="AG3" s="1">
-        <v>1223.930000</v>
+        <v>1223.93</v>
       </c>
       <c r="AH3" s="1">
-        <v>-83.066000</v>
+        <v>-83.066000000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>61833.913963</v>
+        <v>61833.913962999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.176087</v>
+        <v>17.176086999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.879500</v>
+        <v>-87.879499999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>61844.881470</v>
+        <v>61844.88147</v>
       </c>
       <c r="AP3" s="1">
-        <v>17.179134</v>
+        <v>17.179134000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.522000</v>
+        <v>-100.52200000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>61855.891695</v>
+        <v>61855.891694999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.182192</v>
+        <v>17.182192000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1248.600000</v>
+        <v>1248.5999999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.311000</v>
+        <v>-120.31100000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>61866.939057</v>
+        <v>61866.939057000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.185261</v>
+        <v>17.185261000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1256.960000</v>
+        <v>1256.96</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.158000</v>
+        <v>-138.15799999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>61877.918002</v>
+        <v>61877.918001999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.188311</v>
+        <v>17.188310999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.390000</v>
+        <v>1297.3900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.857000</v>
+        <v>-221.857</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>61889.294774</v>
+        <v>61889.294774000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>17.191471</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.904000</v>
+        <v>-359.904</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>61901.137219</v>
+        <v>61901.137218999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.194760</v>
+        <v>17.194759999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1485.940000</v>
+        <v>1485.94</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-582.585000</v>
+        <v>-582.58500000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>61911.590901</v>
+        <v>61911.590901000003</v>
       </c>
       <c r="BT3" s="1">
         <v>17.197664</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.850000</v>
+        <v>1620.85</v>
       </c>
       <c r="BV3" s="1">
-        <v>-832.587000</v>
+        <v>-832.58699999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>61922.311431</v>
+        <v>61922.311431000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.200642</v>
+        <v>17.200641999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1775.780000</v>
+        <v>1775.78</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1102.190000</v>
+        <v>-1102.19</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>61933.301324</v>
@@ -978,497 +1394,497 @@
         <v>17.203695</v>
       </c>
       <c r="CE3" s="1">
-        <v>2196.160000</v>
+        <v>2196.16</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1753.390000</v>
+        <v>-1753.39</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>61761.857169</v>
+        <v>61761.857169000003</v>
       </c>
       <c r="B4" s="1">
-        <v>17.156071</v>
+        <v>17.156071000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1157.420000</v>
+        <v>1157.42</v>
       </c>
       <c r="D4" s="1">
-        <v>-238.414000</v>
+        <v>-238.41399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>61771.977998</v>
+        <v>61771.977998000002</v>
       </c>
       <c r="G4" s="1">
-        <v>17.158883</v>
+        <v>17.158882999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1175.820000</v>
+        <v>1175.82</v>
       </c>
       <c r="I4" s="1">
-        <v>-200.218000</v>
+        <v>-200.21799999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>61782.075403</v>
+        <v>61782.075403000003</v>
       </c>
       <c r="L4" s="1">
-        <v>17.161688</v>
+        <v>17.161688000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1198.670000</v>
+        <v>1198.67</v>
       </c>
       <c r="N4" s="1">
-        <v>-140.827000</v>
+        <v>-140.827</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>61792.253495</v>
+        <v>61792.253494999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.164515</v>
+        <v>17.164515000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1205.330000</v>
+        <v>1205.33</v>
       </c>
       <c r="S4" s="1">
-        <v>-120.145000</v>
+        <v>-120.145</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>61802.807861</v>
+        <v>61802.807861000001</v>
       </c>
       <c r="V4" s="1">
-        <v>17.167447</v>
+        <v>17.167446999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1212.100000</v>
+        <v>1212.0999999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-101.285000</v>
+        <v>-101.285</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>61813.257544</v>
       </c>
       <c r="AA4" s="1">
-        <v>17.170349</v>
+        <v>17.170349000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1219.350000</v>
+        <v>1219.3499999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-86.331900</v>
+        <v>-86.331900000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>61824.149193</v>
+        <v>61824.149192999997</v>
       </c>
       <c r="AF4" s="1">
         <v>17.173375</v>
       </c>
       <c r="AG4" s="1">
-        <v>1223.910000</v>
+        <v>1223.9100000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-83.078100</v>
+        <v>-83.078100000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>61834.611803</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.176281</v>
+        <v>17.176280999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1230.870000</v>
+        <v>1230.8699999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.884600</v>
+        <v>-87.884600000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>61845.242557</v>
+        <v>61845.242556999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.179234</v>
+        <v>17.179234000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.523000</v>
+        <v>-100.523</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>61856.255726</v>
+        <v>61856.255726000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.182293</v>
+        <v>17.182293000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1248.610000</v>
+        <v>1248.6099999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.365000</v>
+        <v>-120.36499999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>61867.298687</v>
+        <v>61867.298687000002</v>
       </c>
       <c r="AZ4" s="1">
         <v>17.185361</v>
       </c>
       <c r="BA4" s="1">
-        <v>1256.860000</v>
+        <v>1256.8599999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.184000</v>
+        <v>-138.184</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>61878.591570</v>
+        <v>61878.591569999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>17.188498</v>
+        <v>17.188497999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1297.320000</v>
+        <v>1297.32</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.905000</v>
+        <v>-221.905</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>61889.728243</v>
+        <v>61889.728242999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.191591</v>
+        <v>17.191590999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.570000</v>
+        <v>1368.57</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.926000</v>
+        <v>-359.92599999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>61901.645618</v>
+        <v>61901.645618000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.194902</v>
+        <v>17.194901999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1485.940000</v>
+        <v>1485.94</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-582.529000</v>
+        <v>-582.529</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>61912.004597</v>
+        <v>61912.004596999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.197779</v>
+        <v>17.197779000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.860000</v>
+        <v>1620.86</v>
       </c>
       <c r="BV4" s="1">
-        <v>-832.679000</v>
+        <v>-832.67899999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>61922.743478</v>
+        <v>61922.743477999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.200762</v>
+        <v>17.200762000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1775.760000</v>
+        <v>1775.76</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1102.190000</v>
+        <v>-1102.19</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>61933.819644</v>
+        <v>61933.819644000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.203839</v>
+        <v>17.203838999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2197.440000</v>
+        <v>2197.44</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1754.900000</v>
+        <v>-1754.9</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>61762.127275</v>
+        <v>61762.127274999999</v>
       </c>
       <c r="B5" s="1">
         <v>17.156146</v>
       </c>
       <c r="C5" s="1">
-        <v>1157.230000</v>
+        <v>1157.23</v>
       </c>
       <c r="D5" s="1">
-        <v>-238.586000</v>
+        <v>-238.58600000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>61772.256254</v>
       </c>
       <c r="G5" s="1">
-        <v>17.158960</v>
+        <v>17.15896</v>
       </c>
       <c r="H5" s="1">
-        <v>1175.310000</v>
+        <v>1175.31</v>
       </c>
       <c r="I5" s="1">
-        <v>-199.967000</v>
+        <v>-199.96700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>61782.418322</v>
+        <v>61782.418321999998</v>
       </c>
       <c r="L5" s="1">
         <v>17.161783</v>
       </c>
       <c r="M5" s="1">
-        <v>1198.470000</v>
+        <v>1198.47</v>
       </c>
       <c r="N5" s="1">
-        <v>-140.406000</v>
+        <v>-140.40600000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>61792.597717</v>
+        <v>61792.597716999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.164610</v>
+        <v>17.16461</v>
       </c>
       <c r="R5" s="1">
-        <v>1205.370000</v>
+        <v>1205.3699999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-120.134000</v>
+        <v>-120.134</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>61803.155030</v>
+        <v>61803.155030000002</v>
       </c>
       <c r="V5" s="1">
-        <v>17.167543</v>
+        <v>17.167542999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>1212.130000</v>
+        <v>1212.1300000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-101.305000</v>
+        <v>-101.30500000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>61813.956902</v>
+        <v>61813.956901999998</v>
       </c>
       <c r="AA5" s="1">
         <v>17.170544</v>
       </c>
       <c r="AB5" s="1">
-        <v>1219.270000</v>
+        <v>1219.27</v>
       </c>
       <c r="AC5" s="1">
-        <v>-86.181900</v>
+        <v>-86.181899999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>61824.496429</v>
+        <v>61824.496428999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.173471</v>
+        <v>17.173470999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1223.900000</v>
+        <v>1223.9000000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-83.053200</v>
+        <v>-83.053200000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>61834.959530</v>
+        <v>61834.95953</v>
       </c>
       <c r="AK5" s="1">
         <v>17.176378</v>
       </c>
       <c r="AL5" s="1">
-        <v>1230.880000</v>
+        <v>1230.8800000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.885900</v>
+        <v>-87.885900000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>61845.600700</v>
+        <v>61845.600700000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.179334</v>
+        <v>17.179334000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.529000</v>
+        <v>-100.529</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>61856.937258</v>
+        <v>61856.937257999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>17.182483</v>
+        <v>17.182483000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1248.640000</v>
+        <v>1248.6400000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.316000</v>
+        <v>-120.316</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>61867.969742</v>
+        <v>61867.969742000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>17.185547</v>
       </c>
       <c r="BA5" s="1">
-        <v>1256.890000</v>
+        <v>1256.8900000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.270000</v>
+        <v>-138.27000000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>61879.029536</v>
+        <v>61879.029536000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.188619</v>
+        <v>17.188618999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.300000</v>
+        <v>1297.3</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.876000</v>
+        <v>-221.876</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>61890.122065</v>
+        <v>61890.122065000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.191701</v>
+        <v>17.191700999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.931000</v>
+        <v>-359.93099999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>61902.061788</v>
+        <v>61902.061787999999</v>
       </c>
       <c r="BO5" s="1">
         <v>17.195017</v>
       </c>
       <c r="BP5" s="1">
-        <v>1485.930000</v>
+        <v>1485.93</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-582.616000</v>
+        <v>-582.61599999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>61912.429177</v>
+        <v>61912.429176999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.197897</v>
+        <v>17.197897000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1620.890000</v>
+        <v>1620.89</v>
       </c>
       <c r="BV5" s="1">
-        <v>-832.673000</v>
+        <v>-832.673</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>61923.164588</v>
@@ -1477,1525 +1893,1525 @@
         <v>17.200879</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1775.720000</v>
+        <v>1775.72</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1102.290000</v>
+        <v>-1102.29</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>61934.336472</v>
+        <v>61934.336472000003</v>
       </c>
       <c r="CD5" s="1">
         <v>17.203982</v>
       </c>
       <c r="CE5" s="1">
-        <v>2198.820000</v>
+        <v>2198.8200000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1753.620000</v>
+        <v>-1753.62</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>61762.467709</v>
+        <v>61762.467708999997</v>
       </c>
       <c r="B6" s="1">
-        <v>17.156241</v>
+        <v>17.156241000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1157.080000</v>
+        <v>1157.08</v>
       </c>
       <c r="D6" s="1">
-        <v>-238.368000</v>
+        <v>-238.36799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>61772.592060</v>
+        <v>61772.592060000003</v>
       </c>
       <c r="G6" s="1">
         <v>17.159053</v>
       </c>
       <c r="H6" s="1">
-        <v>1175.520000</v>
+        <v>1175.52</v>
       </c>
       <c r="I6" s="1">
-        <v>-200.770000</v>
+        <v>-200.77</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>61782.763999</v>
+        <v>61782.763999000003</v>
       </c>
       <c r="L6" s="1">
-        <v>17.161879</v>
+        <v>17.161878999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1198.920000</v>
+        <v>1198.92</v>
       </c>
       <c r="N6" s="1">
-        <v>-139.906000</v>
+        <v>-139.90600000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>61793.296051</v>
+        <v>61793.296050999998</v>
       </c>
       <c r="Q6" s="1">
         <v>17.164804</v>
       </c>
       <c r="R6" s="1">
-        <v>1205.440000</v>
+        <v>1205.44</v>
       </c>
       <c r="S6" s="1">
-        <v>-120.403000</v>
+        <v>-120.40300000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>61803.841524</v>
+        <v>61803.841524000003</v>
       </c>
       <c r="V6" s="1">
-        <v>17.167734</v>
+        <v>17.167733999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1212.180000</v>
+        <v>1212.18</v>
       </c>
       <c r="X6" s="1">
-        <v>-101.393000</v>
+        <v>-101.393</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>61814.304102</v>
+        <v>61814.304102000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.170640</v>
+        <v>17.170639999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1219.340000</v>
+        <v>1219.3399999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-86.451000</v>
+        <v>-86.450999999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>61824.842135</v>
+        <v>61824.842134999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.173567</v>
+        <v>17.173566999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>1223.980000</v>
+        <v>1223.98</v>
       </c>
       <c r="AH6" s="1">
-        <v>-82.960400</v>
+        <v>-82.960400000000007</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>61835.310667</v>
+        <v>61835.310666999998</v>
       </c>
       <c r="AK6" s="1">
         <v>17.176475</v>
       </c>
       <c r="AL6" s="1">
-        <v>1230.850000</v>
+        <v>1230.8499999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.872100</v>
+        <v>-87.872100000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>61846.283660</v>
+        <v>61846.283660000001</v>
       </c>
       <c r="AP6" s="1">
         <v>17.179523</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.548000</v>
+        <v>-100.548</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>61857.371725</v>
+        <v>61857.371724999997</v>
       </c>
       <c r="AU6" s="1">
         <v>17.182603</v>
       </c>
       <c r="AV6" s="1">
-        <v>1248.620000</v>
+        <v>1248.6199999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.337000</v>
+        <v>-120.337</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>61868.374479</v>
+        <v>61868.374478999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.185660</v>
+        <v>17.185659999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1256.920000</v>
+        <v>1256.92</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.297000</v>
+        <v>-138.297</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>61879.392640</v>
+        <v>61879.392639999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.188720</v>
+        <v>17.18872</v>
       </c>
       <c r="BF6" s="1">
-        <v>1297.320000</v>
+        <v>1297.32</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.884000</v>
+        <v>-221.88399999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>61890.503489</v>
+        <v>61890.503489000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.191807</v>
+        <v>17.191807000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.620000</v>
+        <v>1368.62</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.927000</v>
+        <v>-359.92700000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>61902.460545</v>
+        <v>61902.460545000002</v>
       </c>
       <c r="BO6" s="1">
         <v>17.195128</v>
       </c>
       <c r="BP6" s="1">
-        <v>1485.940000</v>
+        <v>1485.94</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-582.645000</v>
+        <v>-582.64499999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>61912.852743</v>
+        <v>61912.852743000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.198015</v>
+        <v>17.198015000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1620.860000</v>
+        <v>1620.86</v>
       </c>
       <c r="BV6" s="1">
-        <v>-832.663000</v>
+        <v>-832.66300000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>61923.586647</v>
+        <v>61923.586646999996</v>
       </c>
       <c r="BY6" s="1">
         <v>17.200996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1775.630000</v>
+        <v>1775.63</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1102.240000</v>
+        <v>-1102.24</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>61934.856772</v>
+        <v>61934.856771999999</v>
       </c>
       <c r="CD6" s="1">
         <v>17.204127</v>
       </c>
       <c r="CE6" s="1">
-        <v>2196.730000</v>
+        <v>2196.73</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1752.290000</v>
+        <v>-1752.29</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>61762.808956</v>
+        <v>61762.808956000001</v>
       </c>
       <c r="B7" s="1">
         <v>17.156336</v>
       </c>
       <c r="C7" s="1">
-        <v>1157.480000</v>
+        <v>1157.48</v>
       </c>
       <c r="D7" s="1">
-        <v>-238.157000</v>
+        <v>-238.15700000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>61773.280988</v>
+        <v>61773.280987999999</v>
       </c>
       <c r="G7" s="1">
-        <v>17.159245</v>
+        <v>17.159244999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1174.450000</v>
+        <v>1174.45</v>
       </c>
       <c r="I7" s="1">
-        <v>-197.724000</v>
+        <v>-197.72399999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>61783.458399</v>
+        <v>61783.458399000003</v>
       </c>
       <c r="L7" s="1">
-        <v>17.162072</v>
+        <v>17.162071999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1198.820000</v>
+        <v>1198.82</v>
       </c>
       <c r="N7" s="1">
-        <v>-139.917000</v>
+        <v>-139.917</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>61793.645762</v>
       </c>
       <c r="Q7" s="1">
-        <v>17.164902</v>
+        <v>17.164902000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1205.380000</v>
+        <v>1205.3800000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-120.050000</v>
+        <v>-120.05</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>61804.184227</v>
+        <v>61804.184226999998</v>
       </c>
       <c r="V7" s="1">
-        <v>17.167829</v>
+        <v>17.167829000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1212.320000</v>
+        <v>1212.32</v>
       </c>
       <c r="X7" s="1">
-        <v>-101.297000</v>
+        <v>-101.297</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>61814.651334</v>
+        <v>61814.651334000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.170736</v>
+        <v>17.170736000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1219.340000</v>
+        <v>1219.3399999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-86.450000</v>
+        <v>-86.45</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>61825.498349</v>
+        <v>61825.498349000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.173750</v>
+        <v>17.173749999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1223.940000</v>
+        <v>1223.94</v>
       </c>
       <c r="AH7" s="1">
-        <v>-83.248100</v>
+        <v>-83.248099999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>61835.974846</v>
+        <v>61835.974845999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.176660</v>
+        <v>17.176659999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1230.860000</v>
+        <v>1230.8599999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.897300</v>
+        <v>-87.897300000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>61846.681452</v>
+        <v>61846.681451999997</v>
       </c>
       <c r="AP7" s="1">
         <v>17.179634</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.514000</v>
+        <v>-100.514</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>61857.735365</v>
       </c>
       <c r="AU7" s="1">
-        <v>17.182704</v>
+        <v>17.182704000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1248.630000</v>
+        <v>1248.6300000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.325000</v>
+        <v>-120.325</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>61868.758400</v>
+        <v>61868.758399999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.185766</v>
+        <v>17.185766000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1256.890000</v>
+        <v>1256.8900000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.289000</v>
+        <v>-138.28899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>61879.751744</v>
+        <v>61879.751744000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.188820</v>
+        <v>17.18882</v>
       </c>
       <c r="BF7" s="1">
-        <v>1297.330000</v>
+        <v>1297.33</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.865000</v>
+        <v>-221.86500000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>61891.118033</v>
+        <v>61891.118032999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.191977</v>
+        <v>17.191977000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.909000</v>
+        <v>-359.90899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>61902.881274</v>
+        <v>61902.881273999999</v>
       </c>
       <c r="BO7" s="1">
         <v>17.195245</v>
       </c>
       <c r="BP7" s="1">
-        <v>1485.940000</v>
+        <v>1485.94</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-582.588000</v>
+        <v>-582.58799999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>61913.257492</v>
+        <v>61913.257491999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.198127</v>
+        <v>17.198126999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.830000</v>
+        <v>1620.83</v>
       </c>
       <c r="BV7" s="1">
-        <v>-832.639000</v>
+        <v>-832.63900000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>61924.014229</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.201115</v>
+        <v>17.201115000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1775.800000</v>
+        <v>1775.8</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1102.240000</v>
+        <v>-1102.24</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>61935.374102</v>
+        <v>61935.374102000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.204271</v>
+        <v>17.204270999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2197.120000</v>
+        <v>2197.12</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1752.340000</v>
+        <v>-1752.34</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>61763.492952</v>
+        <v>61763.492952000001</v>
       </c>
       <c r="B8" s="1">
-        <v>17.156526</v>
+        <v>17.156525999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1156.910000</v>
+        <v>1156.9100000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-238.423000</v>
+        <v>-238.423</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>61773.625211</v>
+        <v>61773.625210999999</v>
       </c>
       <c r="G8" s="1">
-        <v>17.159340</v>
+        <v>17.15934</v>
       </c>
       <c r="H8" s="1">
-        <v>1173.900000</v>
+        <v>1173.9000000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-198.035000</v>
+        <v>-198.035</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>61783.803118</v>
+        <v>61783.803118000003</v>
       </c>
       <c r="L8" s="1">
-        <v>17.162168</v>
+        <v>17.162168000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1198.840000</v>
+        <v>1198.8399999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-139.842000</v>
+        <v>-139.84200000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>61793.993921</v>
+        <v>61793.993921000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>17.164998</v>
+        <v>17.164998000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1205.420000</v>
+        <v>1205.42</v>
       </c>
       <c r="S8" s="1">
-        <v>-120.036000</v>
+        <v>-120.036</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>61804.531924</v>
+        <v>61804.531924000003</v>
       </c>
       <c r="V8" s="1">
-        <v>17.167926</v>
+        <v>17.167926000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1212.170000</v>
+        <v>1212.17</v>
       </c>
       <c r="X8" s="1">
-        <v>-101.304000</v>
+        <v>-101.304</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>61815.318454</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.170922</v>
+        <v>17.170922000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1219.380000</v>
+        <v>1219.3800000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-86.361500</v>
+        <v>-86.361500000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>61825.871525</v>
+        <v>61825.871525000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.173853</v>
+        <v>17.173853000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1223.830000</v>
+        <v>1223.83</v>
       </c>
       <c r="AH8" s="1">
-        <v>-82.960700</v>
+        <v>-82.960700000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>61836.352265</v>
+        <v>61836.352265000001</v>
       </c>
       <c r="AK8" s="1">
         <v>17.176765</v>
       </c>
       <c r="AL8" s="1">
-        <v>1230.860000</v>
+        <v>1230.8599999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.882600</v>
+        <v>-87.882599999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>61847.066379</v>
+        <v>61847.066379000004</v>
       </c>
       <c r="AP8" s="1">
         <v>17.179741</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.543000</v>
+        <v>-100.54300000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>61858.100845</v>
+        <v>61858.100845000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.182806</v>
+        <v>17.182805999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1248.630000</v>
+        <v>1248.6300000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.309000</v>
+        <v>-120.309</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>61869.117834</v>
+        <v>61869.117833999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.185866</v>
+        <v>17.185866000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1256.900000</v>
+        <v>1256.9000000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.304000</v>
+        <v>-138.304</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>61880.173343</v>
+        <v>61880.173343000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.188937</v>
+        <v>17.188936999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1297.350000</v>
+        <v>1297.3499999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.837000</v>
+        <v>-221.83699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>61891.516319</v>
+        <v>61891.516319000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.192088</v>
+        <v>17.192087999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.510000</v>
+        <v>1368.51</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.919000</v>
+        <v>-359.91899999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>61903.278448</v>
+        <v>61903.278447999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.195355</v>
+        <v>17.195354999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1485.930000</v>
+        <v>1485.93</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-582.572000</v>
+        <v>-582.572</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>61913.673141</v>
+        <v>61913.673140999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.198243</v>
+        <v>17.198243000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.850000</v>
+        <v>1620.85</v>
       </c>
       <c r="BV8" s="1">
-        <v>-832.755000</v>
+        <v>-832.755</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>61924.429471</v>
+        <v>61924.429471000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.201230</v>
+        <v>17.201229999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1775.700000</v>
+        <v>1775.7</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1102.240000</v>
+        <v>-1102.24</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>61935.928597</v>
+        <v>61935.928596999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.204425</v>
+        <v>17.204425000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2198.740000</v>
+        <v>2198.7399999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1753.320000</v>
+        <v>-1753.32</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>61763.835208</v>
+        <v>61763.835207999997</v>
       </c>
       <c r="B9" s="1">
-        <v>17.156621</v>
+        <v>17.156621000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1157.230000</v>
+        <v>1157.23</v>
       </c>
       <c r="D9" s="1">
-        <v>-238.371000</v>
+        <v>-238.37100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>61773.971948</v>
+        <v>61773.971947999999</v>
       </c>
       <c r="G9" s="1">
         <v>17.159437</v>
       </c>
       <c r="H9" s="1">
-        <v>1174.440000</v>
+        <v>1174.44</v>
       </c>
       <c r="I9" s="1">
-        <v>-198.516000</v>
+        <v>-198.51599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>61784.152829</v>
+        <v>61784.152828999999</v>
       </c>
       <c r="L9" s="1">
-        <v>17.162265</v>
+        <v>17.162265000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1199.020000</v>
+        <v>1199.02</v>
       </c>
       <c r="N9" s="1">
-        <v>-139.854000</v>
+        <v>-139.85400000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>61794.659055</v>
+        <v>61794.659054999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>17.165183</v>
+        <v>17.165182999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1205.430000</v>
+        <v>1205.43</v>
       </c>
       <c r="S9" s="1">
-        <v>-120.037000</v>
+        <v>-120.03700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>61805.247153</v>
+        <v>61805.247152999997</v>
       </c>
       <c r="V9" s="1">
-        <v>17.168124</v>
+        <v>17.168123999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1212.050000</v>
+        <v>1212.05</v>
       </c>
       <c r="X9" s="1">
-        <v>-101.272000</v>
+        <v>-101.27200000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>61815.694915</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.171026</v>
+        <v>17.171026000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-86.285600</v>
+        <v>-86.285600000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>61826.213542</v>
+        <v>61826.213541999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>17.173948</v>
+        <v>17.173947999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1223.870000</v>
+        <v>1223.8699999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-82.906600</v>
+        <v>-82.906599999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>61836.703966</v>
+        <v>61836.703966000001</v>
       </c>
       <c r="AK9" s="1">
         <v>17.176862</v>
       </c>
       <c r="AL9" s="1">
-        <v>1230.790000</v>
+        <v>1230.79</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.887600</v>
+        <v>-87.887600000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>61847.426442</v>
+        <v>61847.426442000004</v>
       </c>
       <c r="AP9" s="1">
         <v>17.179841</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.554000</v>
+        <v>-100.554</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>61858.532363</v>
+        <v>61858.532362999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.182926</v>
+        <v>17.182925999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1248.610000</v>
+        <v>1248.6099999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.319000</v>
+        <v>-120.319</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>61869.553965</v>
+        <v>61869.553964999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.185987</v>
+        <v>17.185987000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1256.890000</v>
+        <v>1256.8900000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.278000</v>
+        <v>-138.27799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>61880.472430</v>
+        <v>61880.472430000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.189020</v>
+        <v>17.189019999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.360000</v>
+        <v>1297.3599999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.825000</v>
+        <v>-221.82499999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>61891.898942</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.192194</v>
+        <v>17.192194000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.530000</v>
+        <v>1368.53</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.883000</v>
+        <v>-359.88299999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>61903.699057</v>
+        <v>61903.699056999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.195472</v>
+        <v>17.195471999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1485.960000</v>
+        <v>1485.96</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-582.567000</v>
+        <v>-582.56700000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>61914.085810</v>
+        <v>61914.085809999997</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.198357</v>
+        <v>17.198357000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1620.830000</v>
+        <v>1620.83</v>
       </c>
       <c r="BV9" s="1">
-        <v>-832.563000</v>
+        <v>-832.56299999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>61924.876286</v>
+        <v>61924.876285999999</v>
       </c>
       <c r="BY9" s="1">
         <v>17.201355</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1775.600000</v>
+        <v>1775.6</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1102.030000</v>
+        <v>-1102.03</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>61936.461797</v>
+        <v>61936.461797000004</v>
       </c>
       <c r="CD9" s="1">
         <v>17.204573</v>
       </c>
       <c r="CE9" s="1">
-        <v>2197.180000</v>
+        <v>2197.1799999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1752.140000</v>
+        <v>-1752.14</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>61764.176448</v>
+        <v>61764.176447999998</v>
       </c>
       <c r="B10" s="1">
-        <v>17.156716</v>
+        <v>17.156715999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1157.280000</v>
+        <v>1157.28</v>
       </c>
       <c r="D10" s="1">
-        <v>-238.379000</v>
+        <v>-238.37899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>61774.619194</v>
+        <v>61774.619193999999</v>
       </c>
       <c r="G10" s="1">
         <v>17.159616</v>
       </c>
       <c r="H10" s="1">
-        <v>1174.590000</v>
+        <v>1174.5899999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-199.963000</v>
+        <v>-199.96299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>61784.804044</v>
+        <v>61784.804043999997</v>
       </c>
       <c r="L10" s="1">
-        <v>17.162446</v>
+        <v>17.162445999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1199.130000</v>
+        <v>1199.1300000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-139.722000</v>
+        <v>-139.72200000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>61795.040977</v>
+        <v>61795.040976999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.165289</v>
+        <v>17.165289000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-120.001000</v>
+        <v>-120.001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>61805.576532</v>
+        <v>61805.576531999999</v>
       </c>
       <c r="V10" s="1">
-        <v>17.168216</v>
+        <v>17.168216000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1212.100000</v>
+        <v>1212.0999999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-101.284000</v>
+        <v>-101.28400000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>61816.047044</v>
+        <v>61816.047043999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.171124</v>
+        <v>17.171123999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1219.420000</v>
+        <v>1219.42</v>
       </c>
       <c r="AC10" s="1">
-        <v>-86.197900</v>
+        <v>-86.197900000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>61826.556775</v>
+        <v>61826.556774999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.174044</v>
+        <v>17.174043999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1223.800000</v>
+        <v>1223.8</v>
       </c>
       <c r="AH10" s="1">
-        <v>-82.972500</v>
+        <v>-82.972499999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>61837.053111</v>
+        <v>61837.053111000001</v>
       </c>
       <c r="AK10" s="1">
         <v>17.176959</v>
       </c>
       <c r="AL10" s="1">
-        <v>1230.790000</v>
+        <v>1230.79</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.872500</v>
+        <v>-87.872500000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>61847.851550</v>
+        <v>61847.851549999999</v>
       </c>
       <c r="AP10" s="1">
         <v>17.179959</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.524000</v>
+        <v>-100.524</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>61858.831948</v>
+        <v>61858.831947999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.183009</v>
+        <v>17.183008999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1248.610000</v>
+        <v>1248.6099999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.306000</v>
+        <v>-120.306</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>61869.835233</v>
+        <v>61869.835232999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>17.186065</v>
+        <v>17.186064999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1256.870000</v>
+        <v>1256.8699999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.295000</v>
+        <v>-138.29499999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>61880.835966</v>
+        <v>61880.835965999999</v>
       </c>
       <c r="BE10" s="1">
         <v>17.189121</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.410000</v>
+        <v>1297.4100000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.845000</v>
+        <v>-221.845</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>61892.289087</v>
+        <v>61892.289086999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.192303</v>
+        <v>17.192302999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.550000</v>
+        <v>1368.55</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.887000</v>
+        <v>-359.887</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>61904.095856</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.195582</v>
+        <v>17.195582000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1485.940000</v>
+        <v>1485.94</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-582.614000</v>
+        <v>-582.61400000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>61914.497459</v>
+        <v>61914.497458999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.198472</v>
+        <v>17.198471999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.830000</v>
+        <v>1620.83</v>
       </c>
       <c r="BV10" s="1">
-        <v>-832.657000</v>
+        <v>-832.65700000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>61925.298375</v>
+        <v>61925.298374999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.201472</v>
+        <v>17.201471999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1775.610000</v>
+        <v>1775.61</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1102.110000</v>
+        <v>-1102.1099999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>61936.975688</v>
+        <v>61936.975687999999</v>
       </c>
       <c r="CD10" s="1">
         <v>17.204715</v>
       </c>
       <c r="CE10" s="1">
-        <v>2196.250000</v>
+        <v>2196.25</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1754.290000</v>
+        <v>-1754.29</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>61764.833623</v>
+        <v>61764.833622999999</v>
       </c>
       <c r="B11" s="1">
-        <v>17.156898</v>
+        <v>17.156898000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1158.600000</v>
+        <v>1158.5999999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-235.472000</v>
+        <v>-235.47200000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>61775.003625</v>
+        <v>61775.003624999998</v>
       </c>
       <c r="G11" s="1">
         <v>17.159723</v>
       </c>
       <c r="H11" s="1">
-        <v>1174.300000</v>
+        <v>1174.3</v>
       </c>
       <c r="I11" s="1">
-        <v>-199.596000</v>
+        <v>-199.596</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>61785.185964</v>
+        <v>61785.185963999997</v>
       </c>
       <c r="L11" s="1">
-        <v>17.162552</v>
+        <v>17.162552000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1199.010000</v>
+        <v>1199.01</v>
       </c>
       <c r="N11" s="1">
-        <v>-139.634000</v>
+        <v>-139.63399999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>61795.389698</v>
+        <v>61795.389697999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.165386</v>
+        <v>17.165386000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1205.370000</v>
+        <v>1205.3699999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-119.903000</v>
+        <v>-119.90300000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>61805.915265</v>
+        <v>61805.915265000003</v>
       </c>
       <c r="V11" s="1">
-        <v>17.168310</v>
+        <v>17.168310000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1212.070000</v>
+        <v>1212.07</v>
       </c>
       <c r="X11" s="1">
-        <v>-101.193000</v>
+        <v>-101.193</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>61816.392276</v>
+        <v>61816.392275999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>17.171220</v>
+        <v>17.171220000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>1219.310000</v>
+        <v>1219.31</v>
       </c>
       <c r="AC11" s="1">
-        <v>-86.376700</v>
+        <v>-86.3767</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>61826.975398</v>
+        <v>61826.975398000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>17.174160</v>
+        <v>17.174160000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1223.940000</v>
+        <v>1223.94</v>
       </c>
       <c r="AH11" s="1">
-        <v>-82.914100</v>
+        <v>-82.914100000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>61837.502487</v>
+        <v>61837.502486999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.177084</v>
+        <v>17.177084000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1230.780000</v>
+        <v>1230.78</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.873800</v>
+        <v>-87.873800000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>61848.148618</v>
+        <v>61848.148617999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.180041</v>
+        <v>17.180040999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.535000</v>
+        <v>-100.535</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>61859.196010</v>
+        <v>61859.19601</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.183110</v>
+        <v>17.183109999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1248.600000</v>
+        <v>1248.5999999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.287000</v>
+        <v>-120.28700000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>61870.195303</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.186165</v>
+        <v>17.186164999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1256.860000</v>
+        <v>1256.8599999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.290000</v>
+        <v>-138.29</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>61881.196062</v>
+        <v>61881.196062000003</v>
       </c>
       <c r="BE11" s="1">
         <v>17.189221</v>
       </c>
       <c r="BF11" s="1">
-        <v>1297.400000</v>
+        <v>1297.4000000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.868000</v>
+        <v>-221.86799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>61893.039561</v>
+        <v>61893.039560999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>17.192511</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.570000</v>
+        <v>1368.57</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.888000</v>
+        <v>-359.88799999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>61904.564582</v>
+        <v>61904.564581999999</v>
       </c>
       <c r="BO11" s="1">
         <v>17.195712</v>
       </c>
       <c r="BP11" s="1">
-        <v>1485.930000</v>
+        <v>1485.93</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-582.619000</v>
+        <v>-582.61900000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>61914.938896</v>
@@ -3004,497 +3420,497 @@
         <v>17.198594</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.830000</v>
+        <v>1620.83</v>
       </c>
       <c r="BV11" s="1">
-        <v>-832.722000</v>
+        <v>-832.72199999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>61925.722947</v>
+        <v>61925.722947000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.201590</v>
+        <v>17.201589999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1775.720000</v>
+        <v>1775.72</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1102.180000</v>
+        <v>-1102.18</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>61937.491493</v>
+        <v>61937.491493000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>17.204859</v>
+        <v>17.204858999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2198.240000</v>
+        <v>2198.2399999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1754.660000</v>
+        <v>-1754.66</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>61765.202647</v>
+        <v>61765.202646999998</v>
       </c>
       <c r="B12" s="1">
-        <v>17.157001</v>
+        <v>17.157001000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1158.760000</v>
+        <v>1158.76</v>
       </c>
       <c r="D12" s="1">
-        <v>-235.346000</v>
+        <v>-235.346</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>61775.348313</v>
+        <v>61775.348313000002</v>
       </c>
       <c r="G12" s="1">
-        <v>17.159819</v>
+        <v>17.159818999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1175.780000</v>
+        <v>1175.78</v>
       </c>
       <c r="I12" s="1">
-        <v>-199.948000</v>
+        <v>-199.94800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>61785.531677</v>
+        <v>61785.531676999999</v>
       </c>
       <c r="L12" s="1">
-        <v>17.162648</v>
+        <v>17.162648000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1198.800000</v>
+        <v>1198.8</v>
       </c>
       <c r="N12" s="1">
-        <v>-139.916000</v>
+        <v>-139.916</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>61795.738846</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.165483</v>
+        <v>17.165482999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1205.360000</v>
+        <v>1205.3599999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-120.002000</v>
+        <v>-120.002</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>61806.342816</v>
+        <v>61806.342815999997</v>
       </c>
       <c r="V12" s="1">
         <v>17.168429</v>
       </c>
       <c r="W12" s="1">
-        <v>1211.960000</v>
+        <v>1211.96</v>
       </c>
       <c r="X12" s="1">
-        <v>-101.252000</v>
+        <v>-101.252</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>61816.810386</v>
+        <v>61816.810385999997</v>
       </c>
       <c r="AA12" s="1">
         <v>17.171336</v>
       </c>
       <c r="AB12" s="1">
-        <v>1219.150000</v>
+        <v>1219.1500000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-86.500200</v>
+        <v>-86.500200000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>61827.255665</v>
+        <v>61827.255664999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.174238</v>
+        <v>17.174237999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1224.010000</v>
+        <v>1224.01</v>
       </c>
       <c r="AH12" s="1">
-        <v>-83.039100</v>
+        <v>-83.039100000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>61837.766359</v>
+        <v>61837.766359000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.177157</v>
+        <v>17.177157000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1230.750000</v>
+        <v>1230.75</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.816400</v>
+        <v>-87.816400000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>61848.506730</v>
+        <v>61848.506730000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.180141</v>
+        <v>17.180140999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.532000</v>
+        <v>-100.532</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>61859.560103</v>
+        <v>61859.560103000003</v>
       </c>
       <c r="AU12" s="1">
         <v>17.183211</v>
       </c>
       <c r="AV12" s="1">
-        <v>1248.600000</v>
+        <v>1248.5999999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.298000</v>
+        <v>-120.298</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>61870.554893</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.186265</v>
+        <v>17.186264999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1256.810000</v>
+        <v>1256.81</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.318000</v>
+        <v>-138.31800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>61881.919260</v>
+        <v>61881.919260000002</v>
       </c>
       <c r="BE12" s="1">
         <v>17.189422</v>
       </c>
       <c r="BF12" s="1">
-        <v>1297.400000</v>
+        <v>1297.4000000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.841000</v>
+        <v>-221.84100000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>61893.438814</v>
+        <v>61893.438814000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>17.192622</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.530000</v>
+        <v>1368.53</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.939000</v>
+        <v>-359.93900000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>61904.913758</v>
+        <v>61904.913758000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>17.195809</v>
+        <v>17.195809000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1485.940000</v>
+        <v>1485.94</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-582.592000</v>
+        <v>-582.59199999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>61915.366448</v>
+        <v>61915.366448000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.198713</v>
+        <v>17.198713000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1620.830000</v>
+        <v>1620.83</v>
       </c>
       <c r="BV12" s="1">
-        <v>-832.710000</v>
+        <v>-832.71</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>61926.490723</v>
+        <v>61926.490723000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.201803</v>
+        <v>17.201803000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1775.730000</v>
+        <v>1775.73</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1102.250000</v>
+        <v>-1102.25</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>61938.012815</v>
+        <v>61938.012815000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.205004</v>
+        <v>17.205003999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2197.520000</v>
+        <v>2197.52</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1755.130000</v>
+        <v>-1755.13</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>61765.546387</v>
+        <v>61765.546387000002</v>
       </c>
       <c r="B13" s="1">
-        <v>17.157096</v>
+        <v>17.157095999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1158.530000</v>
+        <v>1158.53</v>
       </c>
       <c r="D13" s="1">
-        <v>-235.458000</v>
+        <v>-235.458</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>61775.692676</v>
+        <v>61775.692675999999</v>
       </c>
       <c r="G13" s="1">
-        <v>17.159915</v>
+        <v>17.159915000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1175.080000</v>
+        <v>1175.08</v>
       </c>
       <c r="I13" s="1">
-        <v>-200.290000</v>
+        <v>-200.29</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>61785.878876</v>
+        <v>61785.878876000002</v>
       </c>
       <c r="L13" s="1">
         <v>17.162744</v>
       </c>
       <c r="M13" s="1">
-        <v>1198.950000</v>
+        <v>1198.95</v>
       </c>
       <c r="N13" s="1">
-        <v>-139.859000</v>
+        <v>-139.85900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>61796.163917</v>
+        <v>61796.163916999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>17.165601</v>
+        <v>17.165600999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1205.420000</v>
+        <v>1205.42</v>
       </c>
       <c r="S13" s="1">
-        <v>-119.932000</v>
+        <v>-119.932</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>61806.615617</v>
+        <v>61806.615617000003</v>
       </c>
       <c r="V13" s="1">
-        <v>17.168504</v>
+        <v>17.168503999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1212.080000</v>
+        <v>1212.08</v>
       </c>
       <c r="X13" s="1">
-        <v>-101.262000</v>
+        <v>-101.262</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>61817.093604</v>
+        <v>61817.093604000002</v>
       </c>
       <c r="AA13" s="1">
         <v>17.171415</v>
       </c>
       <c r="AB13" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-86.595100</v>
+        <v>-86.595100000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>61827.599404</v>
+        <v>61827.599404000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.174333</v>
+        <v>17.174333000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1223.820000</v>
+        <v>1223.82</v>
       </c>
       <c r="AH13" s="1">
-        <v>-83.069800</v>
+        <v>-83.069800000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>61838.120998</v>
+        <v>61838.120997999999</v>
       </c>
       <c r="AK13" s="1">
         <v>17.177256</v>
       </c>
       <c r="AL13" s="1">
-        <v>1230.730000</v>
+        <v>1230.73</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.843500</v>
+        <v>-87.843500000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>61848.868808</v>
+        <v>61848.868807999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.180241</v>
+        <v>17.180240999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.545000</v>
+        <v>-100.545</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>61860.288237</v>
+        <v>61860.288237000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.183413</v>
+        <v>17.183413000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1248.600000</v>
+        <v>1248.5999999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.303000</v>
+        <v>-120.303</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>61871.275082</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.186465</v>
+        <v>17.186464999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1256.810000</v>
+        <v>1256.81</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.305000</v>
+        <v>-138.30500000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>61882.309581</v>
+        <v>61882.309581000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>17.189530</v>
+        <v>17.189530000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1297.370000</v>
+        <v>1297.3699999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.875000</v>
+        <v>-221.875</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>61893.814781</v>
+        <v>61893.814781000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>17.192726</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.550000</v>
+        <v>1368.55</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.885000</v>
+        <v>-359.88499999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>61905.631965</v>
@@ -3503,649 +3919,649 @@
         <v>17.196009</v>
       </c>
       <c r="BP13" s="1">
-        <v>1485.920000</v>
+        <v>1485.92</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-582.615000</v>
+        <v>-582.61500000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>61916.085153</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.198913</v>
+        <v>17.198913000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1620.950000</v>
+        <v>1620.95</v>
       </c>
       <c r="BV13" s="1">
-        <v>-832.627000</v>
+        <v>-832.62699999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>61926.600369</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.201833</v>
+        <v>17.201833000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1775.870000</v>
+        <v>1775.87</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1102.130000</v>
+        <v>-1102.1300000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>61938.562385</v>
+        <v>61938.562384999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.205156</v>
+        <v>17.205155999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2196.320000</v>
+        <v>2196.3200000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1754.190000</v>
+        <v>-1754.19</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>61765.887657</v>
+        <v>61765.887656999999</v>
       </c>
       <c r="B14" s="1">
-        <v>17.157191</v>
+        <v>17.157191000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1158.930000</v>
+        <v>1158.93</v>
       </c>
       <c r="D14" s="1">
-        <v>-235.351000</v>
+        <v>-235.351</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>61776.126045</v>
+        <v>61776.126044999997</v>
       </c>
       <c r="G14" s="1">
-        <v>17.160035</v>
+        <v>17.160035000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1175.210000</v>
+        <v>1175.21</v>
       </c>
       <c r="I14" s="1">
-        <v>-200.498000</v>
+        <v>-200.49799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>61786.308427</v>
+        <v>61786.308427000004</v>
       </c>
       <c r="L14" s="1">
-        <v>17.162863</v>
+        <v>17.162863000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-139.649000</v>
+        <v>-139.649</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>61796.443166</v>
+        <v>61796.443165999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.165679</v>
+        <v>17.165679000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1205.420000</v>
+        <v>1205.42</v>
       </c>
       <c r="S14" s="1">
-        <v>-120.036000</v>
+        <v>-120.036</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>61806.959841</v>
+        <v>61806.959841000004</v>
       </c>
       <c r="V14" s="1">
-        <v>17.168600</v>
+        <v>17.168600000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1212.000000</v>
+        <v>1212</v>
       </c>
       <c r="X14" s="1">
-        <v>-101.088000</v>
+        <v>-101.08799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>61817.441795</v>
+        <v>61817.441794999999</v>
       </c>
       <c r="AA14" s="1">
         <v>17.171512</v>
       </c>
       <c r="AB14" s="1">
-        <v>1219.000000</v>
+        <v>1219</v>
       </c>
       <c r="AC14" s="1">
-        <v>-86.535100</v>
+        <v>-86.5351</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>61827.943093</v>
+        <v>61827.943093000002</v>
       </c>
       <c r="AF14" s="1">
         <v>17.174429</v>
       </c>
       <c r="AG14" s="1">
-        <v>1223.660000</v>
+        <v>1223.6600000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-83.197200</v>
+        <v>-83.197199999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>61838.814406</v>
+        <v>61838.814405999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>17.177448</v>
+        <v>17.177447999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1230.660000</v>
+        <v>1230.6600000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.803000</v>
+        <v>-87.802999999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>61849.588039</v>
+        <v>61849.588039000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.180441</v>
+        <v>17.180440999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.515000</v>
+        <v>-100.515</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>61860.653752</v>
+        <v>61860.653751999998</v>
       </c>
       <c r="AU14" s="1">
         <v>17.183515</v>
       </c>
       <c r="AV14" s="1">
-        <v>1248.610000</v>
+        <v>1248.6099999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.289000</v>
+        <v>-120.289</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>61871.654523</v>
+        <v>61871.654522999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.186571</v>
+        <v>17.186571000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1256.830000</v>
+        <v>1256.83</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.302000</v>
+        <v>-138.30199999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>61882.670172</v>
+        <v>61882.670171999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.189631</v>
+        <v>17.189630999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.380000</v>
+        <v>1297.3800000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.868000</v>
+        <v>-221.86799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>61894.505739</v>
       </c>
       <c r="BJ14" s="1">
-        <v>17.192918</v>
+        <v>17.192917999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.500000</v>
+        <v>1368.5</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.961000</v>
+        <v>-359.96100000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>61905.749549</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.196042</v>
+        <v>17.196041999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1485.930000</v>
+        <v>1485.93</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-582.590000</v>
+        <v>-582.59</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>61916.209648</v>
+        <v>61916.209647999996</v>
       </c>
       <c r="BT14" s="1">
         <v>17.198947</v>
       </c>
       <c r="BU14" s="1">
-        <v>1620.810000</v>
+        <v>1620.81</v>
       </c>
       <c r="BV14" s="1">
-        <v>-832.665000</v>
+        <v>-832.66499999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>61927.039297</v>
+        <v>61927.039297000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>17.201955</v>
+        <v>17.201955000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1775.810000</v>
+        <v>1775.81</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1102.150000</v>
+        <v>-1102.1500000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>61939.094810</v>
+        <v>61939.094810000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.205304</v>
+        <v>17.205304000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>2198.560000</v>
+        <v>2198.56</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1753.990000</v>
+        <v>-1753.99</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>61766.320629</v>
+        <v>61766.320629000002</v>
       </c>
       <c r="B15" s="1">
         <v>17.157311</v>
       </c>
       <c r="C15" s="1">
-        <v>1158.890000</v>
+        <v>1158.8900000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-235.669000</v>
+        <v>-235.66900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>61776.407272</v>
+        <v>61776.407271999997</v>
       </c>
       <c r="G15" s="1">
-        <v>17.160113</v>
+        <v>17.160112999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1175.770000</v>
+        <v>1175.77</v>
       </c>
       <c r="I15" s="1">
-        <v>-200.517000</v>
+        <v>-200.517</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>61786.587198</v>
+        <v>61786.587198000001</v>
       </c>
       <c r="L15" s="1">
         <v>17.162941</v>
       </c>
       <c r="M15" s="1">
-        <v>1198.770000</v>
+        <v>1198.77</v>
       </c>
       <c r="N15" s="1">
-        <v>-139.924000</v>
+        <v>-139.92400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>61796.790365</v>
+        <v>61796.790365000001</v>
       </c>
       <c r="Q15" s="1">
         <v>17.165775</v>
       </c>
       <c r="R15" s="1">
-        <v>1205.390000</v>
+        <v>1205.3900000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-120.049000</v>
+        <v>-120.04900000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>61807.302575</v>
+        <v>61807.302575000002</v>
       </c>
       <c r="V15" s="1">
         <v>17.168695</v>
       </c>
       <c r="W15" s="1">
-        <v>1211.930000</v>
+        <v>1211.93</v>
       </c>
       <c r="X15" s="1">
-        <v>-101.181000</v>
+        <v>-101.181</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>61817.788497</v>
+        <v>61817.788497000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.171608</v>
+        <v>17.171607999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1219.350000</v>
+        <v>1219.3499999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-86.343600</v>
+        <v>-86.343599999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>61828.627571</v>
+        <v>61828.627570999997</v>
       </c>
       <c r="AF15" s="1">
         <v>17.174619</v>
       </c>
       <c r="AG15" s="1">
-        <v>1223.730000</v>
+        <v>1223.73</v>
       </c>
       <c r="AH15" s="1">
-        <v>-83.221900</v>
+        <v>-83.221900000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>61839.165609</v>
+        <v>61839.165609000003</v>
       </c>
       <c r="AK15" s="1">
         <v>17.177546</v>
       </c>
       <c r="AL15" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.741700</v>
+        <v>-87.741699999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>61849.950086</v>
+        <v>61849.950085999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.180542</v>
+        <v>17.180541999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.513000</v>
+        <v>-100.51300000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>61861.016363</v>
+        <v>61861.016363000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.183616</v>
+        <v>17.183616000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1248.580000</v>
+        <v>1248.58</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.273000</v>
+        <v>-120.273</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>61872.345977</v>
+        <v>61872.345976999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.186763</v>
+        <v>17.186762999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1256.790000</v>
+        <v>1256.79</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.312000</v>
+        <v>-138.31200000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>61883.348731</v>
+        <v>61883.348730999998</v>
       </c>
       <c r="BE15" s="1">
         <v>17.189819</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.330000</v>
+        <v>1297.33</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.886000</v>
+        <v>-221.886</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>61894.971980</v>
+        <v>61894.971980000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.193048</v>
+        <v>17.193048000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.530000</v>
+        <v>1368.53</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.922000</v>
+        <v>-359.92200000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>61906.148300</v>
+        <v>61906.148300000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.196152</v>
+        <v>17.196152000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1485.950000</v>
+        <v>1485.95</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-582.602000</v>
+        <v>-582.60199999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>61916.648608</v>
+        <v>61916.648608000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.199069</v>
+        <v>17.199069000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.810000</v>
+        <v>1620.81</v>
       </c>
       <c r="BV15" s="1">
-        <v>-832.716000</v>
+        <v>-832.71600000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>61927.462579</v>
+        <v>61927.462578999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.202073</v>
+        <v>17.202072999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1775.660000</v>
+        <v>1775.66</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1102.210000</v>
+        <v>-1102.21</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>61939.611402</v>
+        <v>61939.611402000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.205448</v>
+        <v>17.205448000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2197.680000</v>
+        <v>2197.6799999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1754.660000</v>
+        <v>-1754.66</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>61766.584997</v>
+        <v>61766.584996999998</v>
       </c>
       <c r="B16" s="1">
-        <v>17.157385</v>
+        <v>17.157385000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1158.870000</v>
+        <v>1158.8699999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-235.321000</v>
+        <v>-235.321</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>61776.748023</v>
       </c>
       <c r="G16" s="1">
-        <v>17.160208</v>
+        <v>17.160208000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1175.490000</v>
+        <v>1175.49</v>
       </c>
       <c r="I16" s="1">
-        <v>-199.972000</v>
+        <v>-199.97200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>61786.934857</v>
       </c>
       <c r="L16" s="1">
-        <v>17.163037</v>
+        <v>17.163036999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1198.740000</v>
+        <v>1198.74</v>
       </c>
       <c r="N16" s="1">
-        <v>-139.571000</v>
+        <v>-139.571</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>61797.142066</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.165873</v>
+        <v>17.165873000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1205.390000</v>
+        <v>1205.3900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-119.944000</v>
+        <v>-119.944</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>61807.989039</v>
       </c>
       <c r="V16" s="1">
-        <v>17.168886</v>
+        <v>17.168886000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1211.900000</v>
+        <v>1211.9000000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-101.145000</v>
+        <v>-101.145</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>61818.488352</v>
@@ -4154,225 +4570,225 @@
         <v>17.171802</v>
       </c>
       <c r="AB16" s="1">
-        <v>1219.350000</v>
+        <v>1219.3499999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-86.212100</v>
+        <v>-86.212100000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>61828.972290</v>
+        <v>61828.972289999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>17.174715</v>
+        <v>17.174714999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1223.560000</v>
+        <v>1223.56</v>
       </c>
       <c r="AH16" s="1">
-        <v>-83.249900</v>
+        <v>-83.249899999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>61839.517761</v>
+        <v>61839.517761000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.177644</v>
+        <v>17.177644000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1230.630000</v>
+        <v>1230.6300000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.598900</v>
+        <v>-87.5989</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>61850.309222</v>
+        <v>61850.309222000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.180641</v>
+        <v>17.180641000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1238.620000</v>
+        <v>1238.6199999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.510000</v>
+        <v>-100.51</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>61861.689928</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.183803</v>
+        <v>17.183803000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1248.590000</v>
+        <v>1248.5899999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.229000</v>
+        <v>-120.229</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>61872.750907</v>
+        <v>61872.750907000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>17.186875</v>
+        <v>17.186875000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1256.770000</v>
+        <v>1256.77</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.302000</v>
+        <v>-138.30199999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>61883.756442</v>
+        <v>61883.756441999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.189932</v>
+        <v>17.189931999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1297.320000</v>
+        <v>1297.32</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.891000</v>
+        <v>-221.89099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>61895.361803</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.193156</v>
+        <v>17.193155999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.530000</v>
+        <v>1368.53</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.928000</v>
+        <v>-359.928</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>61906.549596</v>
+        <v>61906.549595999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.196264</v>
+        <v>17.196263999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1485.900000</v>
+        <v>1485.9</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-582.605000</v>
+        <v>-582.60500000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>61917.075662</v>
+        <v>61917.075662000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>17.199188</v>
+        <v>17.199187999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1620.840000</v>
+        <v>1620.84</v>
       </c>
       <c r="BV16" s="1">
-        <v>-832.678000</v>
+        <v>-832.678</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>61927.886501</v>
+        <v>61927.886501000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.202191</v>
+        <v>17.202190999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1775.730000</v>
+        <v>1775.73</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1102.140000</v>
+        <v>-1102.1400000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>61940.163935</v>
+        <v>61940.163934999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.205601</v>
+        <v>17.205601000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2196.360000</v>
+        <v>2196.36</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1754.590000</v>
+        <v>-1754.59</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>61766.929718</v>
+        <v>61766.929717999999</v>
       </c>
       <c r="B17" s="1">
-        <v>17.157480</v>
+        <v>17.15748</v>
       </c>
       <c r="C17" s="1">
-        <v>1158.880000</v>
+        <v>1158.8800000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-235.361000</v>
+        <v>-235.36099999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>61777.095223</v>
+        <v>61777.095222999997</v>
       </c>
       <c r="G17" s="1">
         <v>17.160304</v>
       </c>
       <c r="H17" s="1">
-        <v>1174.830000</v>
+        <v>1174.83</v>
       </c>
       <c r="I17" s="1">
-        <v>-199.578000</v>
+        <v>-199.578</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>61787.281065</v>
+        <v>61787.281065000003</v>
       </c>
       <c r="L17" s="1">
-        <v>17.163134</v>
+        <v>17.163133999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1199.100000</v>
+        <v>1199.0999999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-139.678000</v>
+        <v>-139.678</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>61797.834445</v>
@@ -4381,360 +4797,360 @@
         <v>17.166065</v>
       </c>
       <c r="R17" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-119.926000</v>
+        <v>-119.926</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>61808.331809</v>
+        <v>61808.331809000003</v>
       </c>
       <c r="V17" s="1">
-        <v>17.168981</v>
+        <v>17.168980999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1212.210000</v>
+        <v>1212.21</v>
       </c>
       <c r="X17" s="1">
-        <v>-101.296000</v>
+        <v>-101.29600000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>61818.837039</v>
+        <v>61818.837038999998</v>
       </c>
       <c r="AA17" s="1">
         <v>17.171899</v>
       </c>
       <c r="AB17" s="1">
-        <v>1219.440000</v>
+        <v>1219.44</v>
       </c>
       <c r="AC17" s="1">
-        <v>-86.391100</v>
+        <v>-86.391099999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>61829.315025</v>
+        <v>61829.315025000004</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.174810</v>
+        <v>17.174810000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1223.790000</v>
+        <v>1223.79</v>
       </c>
       <c r="AH17" s="1">
-        <v>-83.347600</v>
+        <v>-83.3476</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>61840.188847</v>
+        <v>61840.188846999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.177830</v>
+        <v>17.17783</v>
       </c>
       <c r="AL17" s="1">
-        <v>1230.780000</v>
+        <v>1230.78</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.445300</v>
+        <v>-87.445300000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>61850.986727</v>
+        <v>61850.986727000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.180830</v>
+        <v>17.18083</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.534000</v>
+        <v>-100.53400000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>61862.110502</v>
+        <v>61862.110502000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.183920</v>
+        <v>17.183920000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1248.630000</v>
+        <v>1248.6300000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.205000</v>
+        <v>-120.205</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>61873.107304</v>
+        <v>61873.107303999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.186974</v>
+        <v>17.186973999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1256.790000</v>
+        <v>1256.79</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.336000</v>
+        <v>-138.33600000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>61884.130889</v>
       </c>
       <c r="BE17" s="1">
-        <v>17.190036</v>
+        <v>17.190035999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1297.300000</v>
+        <v>1297.3</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.860000</v>
+        <v>-221.86</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>61895.737274</v>
+        <v>61895.737273999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.193260</v>
+        <v>17.193259999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.490000</v>
+        <v>1368.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.930000</v>
+        <v>-359.93</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>61906.974175</v>
+        <v>61906.974175000003</v>
       </c>
       <c r="BO17" s="1">
         <v>17.196382</v>
       </c>
       <c r="BP17" s="1">
-        <v>1485.910000</v>
+        <v>1485.91</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-582.581000</v>
+        <v>-582.58100000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>61917.500238</v>
+        <v>61917.500238000001</v>
       </c>
       <c r="BT17" s="1">
         <v>17.199306</v>
       </c>
       <c r="BU17" s="1">
-        <v>1620.810000</v>
+        <v>1620.81</v>
       </c>
       <c r="BV17" s="1">
-        <v>-832.741000</v>
+        <v>-832.74099999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>61928.310078</v>
+        <v>61928.310078000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.202308</v>
+        <v>17.202307999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1775.750000</v>
+        <v>1775.75</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1102.010000</v>
+        <v>-1102.01</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>61940.693198</v>
+        <v>61940.693198000001</v>
       </c>
       <c r="CD17" s="1">
         <v>17.205748</v>
       </c>
       <c r="CE17" s="1">
-        <v>2198.250000</v>
+        <v>2198.25</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1753.970000</v>
+        <v>-1753.97</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>61767.269972</v>
+        <v>61767.269972000002</v>
       </c>
       <c r="B18" s="1">
-        <v>17.157575</v>
+        <v>17.157575000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1158.800000</v>
+        <v>1158.8</v>
       </c>
       <c r="D18" s="1">
-        <v>-235.926000</v>
+        <v>-235.92599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>61777.784663</v>
+        <v>61777.784662999999</v>
       </c>
       <c r="G18" s="1">
-        <v>17.160496</v>
+        <v>17.160495999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1175.890000</v>
+        <v>1175.8900000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-200.211000</v>
+        <v>-200.21100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>61787.976457</v>
+        <v>61787.976456999997</v>
       </c>
       <c r="L18" s="1">
-        <v>17.163327</v>
+        <v>17.163326999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1198.820000</v>
+        <v>1198.82</v>
       </c>
       <c r="N18" s="1">
-        <v>-139.777000</v>
+        <v>-139.77699999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>61798.188091</v>
+        <v>61798.188091000004</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.166163</v>
+        <v>17.166163000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1205.470000</v>
+        <v>1205.47</v>
       </c>
       <c r="S18" s="1">
-        <v>-119.988000</v>
+        <v>-119.988</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>61808.675997</v>
+        <v>61808.675996999998</v>
       </c>
       <c r="V18" s="1">
-        <v>17.169077</v>
+        <v>17.169077000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1212.050000</v>
+        <v>1212.05</v>
       </c>
       <c r="X18" s="1">
-        <v>-101.352000</v>
+        <v>-101.352</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>61819.183775</v>
+        <v>61819.183774999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.171995</v>
+        <v>17.171994999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1219.400000</v>
+        <v>1219.4000000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-86.361600</v>
+        <v>-86.361599999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>61829.971730</v>
+        <v>61829.971729999997</v>
       </c>
       <c r="AF18" s="1">
         <v>17.174992</v>
       </c>
       <c r="AG18" s="1">
-        <v>1223.730000</v>
+        <v>1223.73</v>
       </c>
       <c r="AH18" s="1">
-        <v>-83.299700</v>
+        <v>-83.299700000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>61840.567268</v>
+        <v>61840.567267999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.177935</v>
+        <v>17.177935000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1230.800000</v>
+        <v>1230.8</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.447600</v>
+        <v>-87.447599999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>61851.421222</v>
+        <v>61851.421221999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>17.180950</v>
+        <v>17.180949999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.545000</v>
+        <v>-100.545</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>61862.477047</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.184021</v>
+        <v>17.184021000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1248.640000</v>
+        <v>1248.6400000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.152000</v>
+        <v>-120.152</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>61873.469416</v>
@@ -4743,285 +5159,285 @@
         <v>17.187075</v>
       </c>
       <c r="BA18" s="1">
-        <v>1256.760000</v>
+        <v>1256.76</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.325000</v>
+        <v>-138.32499999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>61884.505370</v>
+        <v>61884.505369999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>17.190140</v>
+        <v>17.19014</v>
       </c>
       <c r="BF18" s="1">
-        <v>1297.310000</v>
+        <v>1297.31</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.879000</v>
+        <v>-221.87899999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>61896.163337</v>
+        <v>61896.163336999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>17.193379</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.886000</v>
+        <v>-359.88600000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>61907.364986</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.196490</v>
+        <v>17.196490000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1485.890000</v>
+        <v>1485.89</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-582.582000</v>
+        <v>-582.58199999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>61917.917905</v>
+        <v>61917.917905000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.199422</v>
+        <v>17.199421999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1620.740000</v>
+        <v>1620.74</v>
       </c>
       <c r="BV18" s="1">
-        <v>-832.622000</v>
+        <v>-832.62199999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>61928.726219</v>
+        <v>61928.726218999996</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.202424</v>
+        <v>17.202424000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1775.470000</v>
+        <v>1775.47</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1102.230000</v>
+        <v>-1102.23</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>61941.210031</v>
+        <v>61941.210031000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.205892</v>
+        <v>17.205891999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2197.230000</v>
+        <v>2197.23</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1754.500000</v>
+        <v>-1754.5</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>61767.955939</v>
+        <v>61767.955938999999</v>
       </c>
       <c r="B19" s="1">
-        <v>17.157766</v>
+        <v>17.157765999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1158.610000</v>
+        <v>1158.6099999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-235.234000</v>
+        <v>-235.23400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>61778.128389</v>
+        <v>61778.128388999998</v>
       </c>
       <c r="G19" s="1">
         <v>17.160591</v>
       </c>
       <c r="H19" s="1">
-        <v>1174.830000</v>
+        <v>1174.83</v>
       </c>
       <c r="I19" s="1">
-        <v>-199.966000</v>
+        <v>-199.96600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>61788.318202</v>
+        <v>61788.318202000002</v>
       </c>
       <c r="L19" s="1">
-        <v>17.163422</v>
+        <v>17.163422000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1198.800000</v>
+        <v>1198.8</v>
       </c>
       <c r="N19" s="1">
-        <v>-139.765000</v>
+        <v>-139.76499999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>61798.535327</v>
+        <v>61798.535326999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.166260</v>
+        <v>17.166260000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1205.580000</v>
+        <v>1205.58</v>
       </c>
       <c r="S19" s="1">
-        <v>-120.326000</v>
+        <v>-120.32599999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>61809.325788</v>
+        <v>61809.325788000002</v>
       </c>
       <c r="V19" s="1">
-        <v>17.169257</v>
+        <v>17.169257000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1212.130000</v>
+        <v>1212.1300000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-101.054000</v>
+        <v>-101.054</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>61819.842430</v>
+        <v>61819.842429999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.172178</v>
+        <v>17.172177999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-86.306500</v>
+        <v>-86.3065</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>61830.346706</v>
+        <v>61830.346705999997</v>
       </c>
       <c r="AF19" s="1">
         <v>17.175096</v>
       </c>
       <c r="AG19" s="1">
-        <v>1223.720000</v>
+        <v>1223.72</v>
       </c>
       <c r="AH19" s="1">
-        <v>-83.345500</v>
+        <v>-83.345500000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>61840.914466</v>
+        <v>61840.914466000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.178032</v>
+        <v>17.178032000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1230.820000</v>
+        <v>1230.82</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.415700</v>
+        <v>-87.415700000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>61851.779830</v>
+        <v>61851.779829999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.181050</v>
+        <v>17.181049999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.521000</v>
+        <v>-100.521</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>61862.840615</v>
+        <v>61862.840615000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.184122</v>
+        <v>17.184121999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1248.550000</v>
+        <v>1248.55</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.188000</v>
+        <v>-120.188</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>61873.896439</v>
+        <v>61873.896438999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.187193</v>
+        <v>17.187193000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1256.790000</v>
+        <v>1256.79</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.371000</v>
+        <v>-138.37100000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>61884.935950</v>
+        <v>61884.935949999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.190260</v>
+        <v>17.190259999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1297.380000</v>
+        <v>1297.3800000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.856000</v>
+        <v>-221.85599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>61896.489706</v>
@@ -5030,1056 +5446,1056 @@
         <v>17.193469</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.500000</v>
+        <v>1368.5</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.854000</v>
+        <v>-359.85399999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>61907.787114</v>
+        <v>61907.787113999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.196608</v>
+        <v>17.196608000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1485.910000</v>
+        <v>1485.91</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-582.568000</v>
+        <v>-582.56799999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>61918.345916</v>
+        <v>61918.345915999998</v>
       </c>
       <c r="BT19" s="1">
         <v>17.199541</v>
       </c>
       <c r="BU19" s="1">
-        <v>1620.790000</v>
+        <v>1620.79</v>
       </c>
       <c r="BV19" s="1">
-        <v>-832.553000</v>
+        <v>-832.553</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>61929.174574</v>
+        <v>61929.174573999997</v>
       </c>
       <c r="BY19" s="1">
         <v>17.202548</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1775.730000</v>
+        <v>1775.73</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1102.280000</v>
+        <v>-1102.28</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>61941.762541</v>
+        <v>61941.762540999996</v>
       </c>
       <c r="CD19" s="1">
         <v>17.206045</v>
       </c>
       <c r="CE19" s="1">
-        <v>2196.420000</v>
+        <v>2196.42</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1754.410000</v>
+        <v>-1754.41</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>61768.299170</v>
+        <v>61768.299169999998</v>
       </c>
       <c r="B20" s="1">
         <v>17.157861</v>
       </c>
       <c r="C20" s="1">
-        <v>1158.650000</v>
+        <v>1158.6500000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-235.470000</v>
+        <v>-235.47</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>61778.473110</v>
+        <v>61778.473109999999</v>
       </c>
       <c r="G20" s="1">
-        <v>17.160687</v>
+        <v>17.160686999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1174.600000</v>
+        <v>1174.5999999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-199.857000</v>
+        <v>-199.857</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>61788.671352</v>
+        <v>61788.671351999998</v>
       </c>
       <c r="L20" s="1">
-        <v>17.163520</v>
+        <v>17.163519999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1198.660000</v>
+        <v>1198.6600000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-139.705000</v>
+        <v>-139.70500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>61799.196459</v>
+        <v>61799.196458999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.166443</v>
+        <v>17.166443000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-120.040000</v>
+        <v>-120.04</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>61809.704710</v>
+        <v>61809.704709999998</v>
       </c>
       <c r="V20" s="1">
         <v>17.169362</v>
       </c>
       <c r="W20" s="1">
-        <v>1211.840000</v>
+        <v>1211.8399999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-101.148000</v>
+        <v>-101.148</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>61820.228345</v>
+        <v>61820.228345000003</v>
       </c>
       <c r="AA20" s="1">
         <v>17.172286</v>
       </c>
       <c r="AB20" s="1">
-        <v>1219.480000</v>
+        <v>1219.48</v>
       </c>
       <c r="AC20" s="1">
-        <v>-86.273100</v>
+        <v>-86.273099999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>61830.688973</v>
+        <v>61830.688972999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.175191</v>
+        <v>17.175191000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>1223.900000</v>
+        <v>1223.9000000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-83.246500</v>
+        <v>-83.246499999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>61841.264674</v>
+        <v>61841.264673999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.178129</v>
+        <v>17.178128999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1230.810000</v>
+        <v>1230.81</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.461200</v>
+        <v>-87.461200000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>61852.140916</v>
+        <v>61852.140915999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>17.181150</v>
+        <v>17.181149999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.560000</v>
+        <v>-100.56</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>61863.274118</v>
+        <v>61863.274118000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.184243</v>
+        <v>17.184242999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1248.620000</v>
+        <v>1248.6199999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.180000</v>
+        <v>-120.18</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>61874.184616</v>
+        <v>61874.184615999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.187274</v>
+        <v>17.187273999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1256.760000</v>
+        <v>1256.76</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.332000</v>
+        <v>-138.33199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>61885.226586</v>
+        <v>61885.226585999997</v>
       </c>
       <c r="BE20" s="1">
         <v>17.190341</v>
       </c>
       <c r="BF20" s="1">
-        <v>1297.420000</v>
+        <v>1297.42</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.860000</v>
+        <v>-221.86</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>61896.871130</v>
+        <v>61896.87113</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.193575</v>
+        <v>17.193574999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.530000</v>
+        <v>1368.53</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.881000</v>
+        <v>-359.88099999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>61908.184906</v>
+        <v>61908.184906000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.196718</v>
+        <v>17.196718000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1485.910000</v>
+        <v>1485.91</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-582.596000</v>
+        <v>-582.596</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>61918.756107</v>
+        <v>61918.756107000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.199654</v>
+        <v>17.199653999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1620.770000</v>
+        <v>1620.77</v>
       </c>
       <c r="BV20" s="1">
-        <v>-832.648000</v>
+        <v>-832.64800000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>61929.594687</v>
+        <v>61929.594686999997</v>
       </c>
       <c r="BY20" s="1">
         <v>17.202665</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1775.720000</v>
+        <v>1775.72</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1102.230000</v>
+        <v>-1102.23</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>61942.294749</v>
+        <v>61942.294749000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.206193</v>
+        <v>17.206192999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2198.250000</v>
+        <v>2198.25</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1754.300000</v>
+        <v>-1754.3</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>61768.639957</v>
+        <v>61768.639956999999</v>
       </c>
       <c r="B21" s="1">
-        <v>17.157956</v>
+        <v>17.157955999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1158.570000</v>
+        <v>1158.57</v>
       </c>
       <c r="D21" s="1">
-        <v>-235.702000</v>
+        <v>-235.702</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>61779.133317</v>
       </c>
       <c r="G21" s="1">
-        <v>17.160870</v>
+        <v>17.160869999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1175.300000</v>
+        <v>1175.3</v>
       </c>
       <c r="I21" s="1">
-        <v>-199.092000</v>
+        <v>-199.09200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>61789.124696</v>
+        <v>61789.124695999999</v>
       </c>
       <c r="L21" s="1">
         <v>17.163646</v>
       </c>
       <c r="M21" s="1">
-        <v>1198.710000</v>
+        <v>1198.71</v>
       </c>
       <c r="N21" s="1">
-        <v>-139.765000</v>
+        <v>-139.76499999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>61799.583371</v>
+        <v>61799.583371000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.166551</v>
+        <v>17.166550999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1205.440000</v>
+        <v>1205.44</v>
       </c>
       <c r="S21" s="1">
-        <v>-119.923000</v>
+        <v>-119.923</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>61810.050940</v>
+        <v>61810.050940000001</v>
       </c>
       <c r="V21" s="1">
         <v>17.169459</v>
       </c>
       <c r="W21" s="1">
-        <v>1212.250000</v>
+        <v>1212.25</v>
       </c>
       <c r="X21" s="1">
-        <v>-101.279000</v>
+        <v>-101.279</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>61820.581967</v>
+        <v>61820.581966999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.172384</v>
+        <v>17.172384000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1219.370000</v>
+        <v>1219.3699999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-86.345900</v>
+        <v>-86.3459</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>61831.028208</v>
+        <v>61831.028208000003</v>
       </c>
       <c r="AF21" s="1">
         <v>17.175286</v>
       </c>
       <c r="AG21" s="1">
-        <v>1223.700000</v>
+        <v>1223.7</v>
       </c>
       <c r="AH21" s="1">
-        <v>-83.466600</v>
+        <v>-83.4666</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>61841.686243</v>
+        <v>61841.686242999996</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.178246</v>
+        <v>17.178246000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1230.750000</v>
+        <v>1230.75</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.489800</v>
+        <v>-87.489800000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>61852.567475</v>
+        <v>61852.567475000003</v>
       </c>
       <c r="AP21" s="1">
         <v>17.181269</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.524000</v>
+        <v>-100.524</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>61863.570265</v>
+        <v>61863.570265000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.184325</v>
+        <v>17.184325000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1248.610000</v>
+        <v>1248.6099999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.178000</v>
+        <v>-120.178</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>61874.544710</v>
+        <v>61874.544710000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>17.187374</v>
+        <v>17.187373999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1256.770000</v>
+        <v>1256.77</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.321000</v>
+        <v>-138.321</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>61885.587639</v>
+        <v>61885.587638999998</v>
       </c>
       <c r="BE21" s="1">
         <v>17.190441</v>
       </c>
       <c r="BF21" s="1">
-        <v>1297.390000</v>
+        <v>1297.3900000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.838000</v>
+        <v>-221.83799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>61897.263465</v>
+        <v>61897.263465000004</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.193684</v>
+        <v>17.193684000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.530000</v>
+        <v>1368.53</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.865000</v>
+        <v>-359.86500000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>61908.614164</v>
+        <v>61908.614163999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.196837</v>
+        <v>17.196836999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1485.860000</v>
+        <v>1485.86</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-582.558000</v>
+        <v>-582.55799999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>61919.185679</v>
+        <v>61919.185679000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.199774</v>
+        <v>17.199774000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1620.730000</v>
+        <v>1620.73</v>
       </c>
       <c r="BV21" s="1">
-        <v>-832.638000</v>
+        <v>-832.63800000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>61930.017276</v>
+        <v>61930.017275999999</v>
       </c>
       <c r="BY21" s="1">
         <v>17.202783</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1775.630000</v>
+        <v>1775.63</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1102.210000</v>
+        <v>-1102.21</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>61942.814060</v>
+        <v>61942.814059999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>17.206337</v>
+        <v>17.206337000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2197.880000</v>
+        <v>2197.88</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1752.180000</v>
+        <v>-1752.18</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>61769.285218</v>
+        <v>61769.285217999997</v>
       </c>
       <c r="B22" s="1">
-        <v>17.158135</v>
+        <v>17.158135000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1158.250000</v>
+        <v>1158.25</v>
       </c>
       <c r="D22" s="1">
-        <v>-235.439000</v>
+        <v>-235.43899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>61779.506804</v>
+        <v>61779.506803999997</v>
       </c>
       <c r="G22" s="1">
         <v>17.160974</v>
       </c>
       <c r="H22" s="1">
-        <v>1174.370000</v>
+        <v>1174.3699999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-199.502000</v>
+        <v>-199.50200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>61789.366775</v>
+        <v>61789.366775000002</v>
       </c>
       <c r="L22" s="1">
-        <v>17.163713</v>
+        <v>17.163713000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1198.530000</v>
+        <v>1198.53</v>
       </c>
       <c r="N22" s="1">
-        <v>-139.912000</v>
+        <v>-139.91200000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>61799.928090</v>
+        <v>61799.928090000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.166647</v>
+        <v>17.166647000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1205.430000</v>
+        <v>1205.43</v>
       </c>
       <c r="S22" s="1">
-        <v>-119.956000</v>
+        <v>-119.956</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>61810.397644</v>
+        <v>61810.397643999997</v>
       </c>
       <c r="V22" s="1">
-        <v>17.169555</v>
+        <v>17.169554999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1212.150000</v>
+        <v>1212.1500000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-101.195000</v>
+        <v>-101.19499999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>61820.934125</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.172482</v>
+        <v>17.172481999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1219.330000</v>
+        <v>1219.33</v>
       </c>
       <c r="AC22" s="1">
-        <v>-86.370900</v>
+        <v>-86.370900000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>61831.465220</v>
+        <v>61831.465219999998</v>
       </c>
       <c r="AF22" s="1">
         <v>17.175407</v>
       </c>
       <c r="AG22" s="1">
-        <v>1223.760000</v>
+        <v>1223.76</v>
       </c>
       <c r="AH22" s="1">
-        <v>-83.428900</v>
+        <v>-83.428899999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>61841.972961</v>
+        <v>61841.972960999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.178326</v>
+        <v>17.178325999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1230.660000</v>
+        <v>1230.6600000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.796300</v>
+        <v>-87.796300000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>61852.860115</v>
+        <v>61852.860115000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.181350</v>
+        <v>17.181349999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.494000</v>
+        <v>-100.494</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>61863.933827</v>
+        <v>61863.933827000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.184426</v>
+        <v>17.184425999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1248.610000</v>
+        <v>1248.6099999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.171000</v>
+        <v>-120.17100000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>61874.905829</v>
+        <v>61874.905829000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.187474</v>
+        <v>17.187474000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1256.780000</v>
+        <v>1256.78</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.359000</v>
+        <v>-138.35900000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>61885.946775</v>
+        <v>61885.946774999997</v>
       </c>
       <c r="BE22" s="1">
         <v>17.190541</v>
       </c>
       <c r="BF22" s="1">
-        <v>1297.370000</v>
+        <v>1297.3699999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.849000</v>
+        <v>-221.84899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>61898.012919</v>
+        <v>61898.012919000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.193892</v>
+        <v>17.193892000000002</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.880000</v>
+        <v>-359.88</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>61909.004264</v>
+        <v>61909.004264000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.196946</v>
+        <v>17.196946000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1485.880000</v>
+        <v>1485.88</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-582.565000</v>
+        <v>-582.56500000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>61919.615704</v>
+        <v>61919.615704000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>17.199893</v>
+        <v>17.199892999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1620.620000</v>
+        <v>1620.62</v>
       </c>
       <c r="BV22" s="1">
-        <v>-832.680000</v>
+        <v>-832.68</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>61930.465166</v>
+        <v>61930.465166000002</v>
       </c>
       <c r="BY22" s="1">
         <v>17.202907</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1775.730000</v>
+        <v>1775.73</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1102.160000</v>
+        <v>-1102.1600000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>61943.640395</v>
+        <v>61943.640395000002</v>
       </c>
       <c r="CD22" s="1">
         <v>17.206567</v>
       </c>
       <c r="CE22" s="1">
-        <v>2195.840000</v>
+        <v>2195.84</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1752.510000</v>
+        <v>-1752.51</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>61769.663666</v>
       </c>
       <c r="B23" s="1">
-        <v>17.158240</v>
+        <v>17.158239999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1157.630000</v>
+        <v>1157.6300000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-235.616000</v>
+        <v>-235.61600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>61779.851987</v>
+        <v>61779.851987000002</v>
       </c>
       <c r="G23" s="1">
-        <v>17.161070</v>
+        <v>17.161069999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1175.290000</v>
+        <v>1175.29</v>
       </c>
       <c r="I23" s="1">
-        <v>-199.436000</v>
+        <v>-199.43600000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>61789.714966</v>
       </c>
       <c r="L23" s="1">
-        <v>17.163810</v>
+        <v>17.163810000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1198.550000</v>
+        <v>1198.55</v>
       </c>
       <c r="N23" s="1">
-        <v>-140.001000</v>
+        <v>-140.001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>61800.278728</v>
+        <v>61800.278727999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>17.166744</v>
+        <v>17.166744000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1205.540000</v>
+        <v>1205.54</v>
       </c>
       <c r="S23" s="1">
-        <v>-119.903000</v>
+        <v>-119.90300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>61810.828635</v>
+        <v>61810.828634999998</v>
       </c>
       <c r="V23" s="1">
-        <v>17.169675</v>
+        <v>17.169675000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1212.210000</v>
+        <v>1212.21</v>
       </c>
       <c r="X23" s="1">
-        <v>-101.260000</v>
+        <v>-101.26</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>61821.371852</v>
+        <v>61821.371851999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.172603</v>
+        <v>17.172602999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1219.510000</v>
+        <v>1219.51</v>
       </c>
       <c r="AC23" s="1">
-        <v>-86.178600</v>
+        <v>-86.178600000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>61831.742479</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.175484</v>
+        <v>17.175484000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1223.830000</v>
+        <v>1223.83</v>
       </c>
       <c r="AH23" s="1">
-        <v>-83.679900</v>
+        <v>-83.679900000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>61842.321153</v>
+        <v>61842.321152999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>17.178423</v>
+        <v>17.178422999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1230.650000</v>
+        <v>1230.6500000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.749700</v>
+        <v>-87.749700000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>61853.225170</v>
+        <v>61853.225169999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>17.181451</v>
+        <v>17.181450999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.518000</v>
+        <v>-100.518</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>61864.298388</v>
+        <v>61864.298388000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.184527</v>
+        <v>17.184526999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1248.620000</v>
+        <v>1248.6199999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.153000</v>
+        <v>-120.15300000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>61875.621526</v>
+        <v>61875.621526000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>17.187673</v>
       </c>
       <c r="BA23" s="1">
-        <v>1256.800000</v>
+        <v>1256.8</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.312000</v>
+        <v>-138.31200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>61886.672887</v>
+        <v>61886.672887000001</v>
       </c>
       <c r="BE23" s="1">
         <v>17.190742</v>
       </c>
       <c r="BF23" s="1">
-        <v>1297.390000</v>
+        <v>1297.3900000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.872000</v>
+        <v>-221.87200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>61898.412709</v>
+        <v>61898.412708999997</v>
       </c>
       <c r="BJ23" s="1">
         <v>17.194004</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.530000</v>
+        <v>1368.53</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.893000</v>
+        <v>-359.89299999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>61909.422430</v>
+        <v>61909.422429999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.197062</v>
+        <v>17.197061999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1485.880000</v>
+        <v>1485.88</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-582.530000</v>
+        <v>-582.53</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>61920.028842</v>
@@ -6088,75 +6504,75 @@
         <v>17.200008</v>
       </c>
       <c r="BU23" s="1">
-        <v>1620.660000</v>
+        <v>1620.66</v>
       </c>
       <c r="BV23" s="1">
-        <v>-832.607000</v>
+        <v>-832.60699999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>61931.211147</v>
+        <v>61931.211147000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.203114</v>
+        <v>17.203113999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1775.620000</v>
+        <v>1775.62</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1102.330000</v>
+        <v>-1102.33</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>61943.880955</v>
+        <v>61943.880955000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>17.206634</v>
+        <v>17.206634000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2197.760000</v>
+        <v>2197.7600000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1754.750000</v>
+        <v>-1754.75</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>61770.008385</v>
+        <v>61770.008385000001</v>
       </c>
       <c r="B24" s="1">
-        <v>17.158336</v>
+        <v>17.158335999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1157.400000</v>
+        <v>1157.4000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-235.698000</v>
+        <v>-235.69800000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>61780.195219</v>
+        <v>61780.195219000001</v>
       </c>
       <c r="G24" s="1">
         <v>17.161165</v>
       </c>
       <c r="H24" s="1">
-        <v>1174.480000</v>
+        <v>1174.48</v>
       </c>
       <c r="I24" s="1">
-        <v>-199.528000</v>
+        <v>-199.52799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>61790.132565</v>
@@ -6165,148 +6581,148 @@
         <v>17.163926</v>
       </c>
       <c r="M24" s="1">
-        <v>1198.310000</v>
+        <v>1198.31</v>
       </c>
       <c r="N24" s="1">
-        <v>-140.032000</v>
+        <v>-140.03200000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>61800.707274</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.166863</v>
+        <v>17.166862999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1205.570000</v>
+        <v>1205.57</v>
       </c>
       <c r="S24" s="1">
-        <v>-119.913000</v>
+        <v>-119.913</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>61811.099946</v>
+        <v>61811.099946000002</v>
       </c>
       <c r="V24" s="1">
-        <v>17.169750</v>
+        <v>17.169750000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1212.290000</v>
+        <v>1212.29</v>
       </c>
       <c r="X24" s="1">
-        <v>-101.013000</v>
+        <v>-101.01300000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>61821.643405</v>
+        <v>61821.643405000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.172679</v>
+        <v>17.172678999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1219.250000</v>
+        <v>1219.25</v>
       </c>
       <c r="AC24" s="1">
-        <v>-86.521100</v>
+        <v>-86.521100000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>61832.085182</v>
+        <v>61832.085182000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.175579</v>
+        <v>17.175578999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1223.880000</v>
+        <v>1223.8800000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-83.428800</v>
+        <v>-83.428799999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>61842.670032</v>
+        <v>61842.670032000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>17.178519</v>
+        <v>17.178519000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1230.600000</v>
+        <v>1230.5999999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.650300</v>
+        <v>-87.650300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>61853.583777</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.181551</v>
+        <v>17.181550999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1238.700000</v>
+        <v>1238.7</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.262000</v>
+        <v>-100.262</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>61865.030487</v>
+        <v>61865.030487000004</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.184731</v>
+        <v>17.184730999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1248.580000</v>
+        <v>1248.58</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.199000</v>
+        <v>-120.199</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>61875.976667</v>
+        <v>61875.976667000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.187771</v>
+        <v>17.187771000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1256.800000</v>
+        <v>1256.8</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.313000</v>
+        <v>-138.31299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>61887.034470</v>
+        <v>61887.034469999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.190843</v>
+        <v>17.190843000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1297.380000</v>
+        <v>1297.3800000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.846000</v>
+        <v>-221.846</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>61898.789654</v>
@@ -6315,589 +6731,590 @@
         <v>17.194108</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.887000</v>
+        <v>-359.887</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>61910.122744</v>
       </c>
       <c r="BO24" s="1">
-        <v>17.197256</v>
+        <v>17.197255999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1485.940000</v>
+        <v>1485.94</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-582.574000</v>
+        <v>-582.57399999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>61920.763035</v>
+        <v>61920.763035000004</v>
       </c>
       <c r="BT24" s="1">
-        <v>17.200212</v>
+        <v>17.200212000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1620.610000</v>
+        <v>1620.61</v>
       </c>
       <c r="BV24" s="1">
-        <v>-832.576000</v>
+        <v>-832.57600000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>61931.328818</v>
+        <v>61931.328818000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.203147</v>
+        <v>17.203147000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1775.690000</v>
+        <v>1775.69</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1102.210000</v>
+        <v>-1102.21</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>61944.412665</v>
+        <v>61944.412665000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>17.206781</v>
+        <v>17.206780999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2197.510000</v>
+        <v>2197.5100000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1751.740000</v>
+        <v>-1751.74</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>61770.351120</v>
+        <v>61770.351119999999</v>
       </c>
       <c r="B25" s="1">
         <v>17.158431</v>
       </c>
       <c r="C25" s="1">
-        <v>1157.310000</v>
+        <v>1157.31</v>
       </c>
       <c r="D25" s="1">
-        <v>-235.579000</v>
+        <v>-235.57900000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>61780.616849</v>
+        <v>61780.616848999998</v>
       </c>
       <c r="G25" s="1">
         <v>17.161282</v>
       </c>
       <c r="H25" s="1">
-        <v>1174.510000</v>
+        <v>1174.51</v>
       </c>
       <c r="I25" s="1">
-        <v>-200.842000</v>
+        <v>-200.84200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>61790.408014</v>
+        <v>61790.408014000001</v>
       </c>
       <c r="L25" s="1">
         <v>17.164002</v>
       </c>
       <c r="M25" s="1">
-        <v>1198.480000</v>
+        <v>1198.48</v>
       </c>
       <c r="N25" s="1">
-        <v>-139.647000</v>
+        <v>-139.64699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>61800.987051</v>
+        <v>61800.987050999996</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.166941</v>
+        <v>17.166941000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1205.590000</v>
+        <v>1205.5899999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-119.944000</v>
+        <v>-119.944</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>61811.444177</v>
+        <v>61811.444176999998</v>
       </c>
       <c r="V25" s="1">
         <v>17.169846</v>
       </c>
       <c r="W25" s="1">
-        <v>1212.290000</v>
+        <v>1212.29</v>
       </c>
       <c r="X25" s="1">
-        <v>-100.994000</v>
+        <v>-100.994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>61821.982172</v>
+        <v>61821.982172000004</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.172773</v>
+        <v>17.172772999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1219.120000</v>
+        <v>1219.1199999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-86.565000</v>
+        <v>-86.564999999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>61832.429406</v>
+        <v>61832.429406000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.175675</v>
+        <v>17.175674999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1224.030000</v>
+        <v>1224.03</v>
       </c>
       <c r="AH25" s="1">
-        <v>-83.584200</v>
+        <v>-83.584199999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>61843.368208</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.178713</v>
+        <v>17.178712999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1230.650000</v>
+        <v>1230.6500000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.562200</v>
+        <v>-87.562200000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>61854.298513</v>
+        <v>61854.298513000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.181750</v>
+        <v>17.181750000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1238.680000</v>
+        <v>1238.68</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.252000</v>
+        <v>-100.252</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>61865.425762</v>
+        <v>61865.425761999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>17.184840</v>
+        <v>17.184840000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1248.620000</v>
+        <v>1248.6199999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.200000</v>
+        <v>-120.2</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>61876.336291</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.187871</v>
+        <v>17.187871000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1256.820000</v>
+        <v>1256.82</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.291000</v>
+        <v>-138.291</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>61887.395062</v>
+        <v>61887.395062000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>17.190943</v>
+        <v>17.190943000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1297.350000</v>
+        <v>1297.3499999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.868000</v>
+        <v>-221.86799999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>61899.482597</v>
+        <v>61899.482597000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>17.194301</v>
+        <v>17.194300999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.891000</v>
+        <v>-359.89100000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>61910.240327</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.197289</v>
+        <v>17.197289000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1485.880000</v>
+        <v>1485.88</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-582.599000</v>
+        <v>-582.59900000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>61920.907790</v>
+        <v>61920.907789999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>17.200252</v>
+        <v>17.200251999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1620.600000</v>
+        <v>1620.6</v>
       </c>
       <c r="BV25" s="1">
-        <v>-832.511000</v>
+        <v>-832.51099999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>61931.754283</v>
+        <v>61931.754283000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>17.203265</v>
+        <v>17.203264999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1775.620000</v>
+        <v>1775.62</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1102.230000</v>
+        <v>-1102.23</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>61944.953305</v>
+        <v>61944.953305000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>17.206931</v>
+        <v>17.206931000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2196.050000</v>
+        <v>2196.0500000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1754.170000</v>
+        <v>-1754.17</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>61770.779167</v>
+        <v>61770.779167000001</v>
       </c>
       <c r="B26" s="1">
-        <v>17.158550</v>
+        <v>17.158550000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1157.540000</v>
+        <v>1157.54</v>
       </c>
       <c r="D26" s="1">
-        <v>-235.382000</v>
+        <v>-235.38200000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>61780.897058</v>
+        <v>61780.897058000002</v>
       </c>
       <c r="G26" s="1">
-        <v>17.161360</v>
+        <v>17.161359999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1174.420000</v>
+        <v>1174.42</v>
       </c>
       <c r="I26" s="1">
-        <v>-199.790000</v>
+        <v>-199.79</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>61790.756037</v>
+        <v>61790.756036999999</v>
       </c>
       <c r="L26" s="1">
         <v>17.164099</v>
       </c>
       <c r="M26" s="1">
-        <v>1198.500000</v>
+        <v>1198.5</v>
       </c>
       <c r="N26" s="1">
-        <v>-140.061000</v>
+        <v>-140.06100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>61801.335207</v>
+        <v>61801.335206999996</v>
       </c>
       <c r="Q26" s="1">
-        <v>17.167038</v>
+        <v>17.167038000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1205.550000</v>
+        <v>1205.55</v>
       </c>
       <c r="S26" s="1">
-        <v>-119.916000</v>
+        <v>-119.916</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>61811.790377</v>
+        <v>61811.790376999998</v>
       </c>
       <c r="V26" s="1">
-        <v>17.169942</v>
+        <v>17.169941999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1212.180000</v>
+        <v>1212.18</v>
       </c>
       <c r="X26" s="1">
-        <v>-100.996000</v>
+        <v>-100.996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>61822.680538</v>
+        <v>61822.680538000001</v>
       </c>
       <c r="AA26" s="1">
         <v>17.172967</v>
       </c>
       <c r="AB26" s="1">
-        <v>1219.140000</v>
+        <v>1219.1400000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-86.606600</v>
+        <v>-86.6066</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>61833.115904</v>
+        <v>61833.115903999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.175866</v>
+        <v>17.175865999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1224.020000</v>
+        <v>1224.02</v>
       </c>
       <c r="AH26" s="1">
-        <v>-83.424400</v>
+        <v>-83.424400000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>61843.716863</v>
+        <v>61843.716863000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>17.178810</v>
+        <v>17.178809999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1230.660000</v>
+        <v>1230.6600000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.800400</v>
+        <v>-87.800399999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>61854.683906</v>
+        <v>61854.683905999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.181857</v>
+        <v>17.181857000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1238.700000</v>
+        <v>1238.7</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.223000</v>
+        <v>-100.223</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>61865.787841</v>
+        <v>61865.787840999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.184941</v>
+        <v>17.184940999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1248.620000</v>
+        <v>1248.6199999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.168000</v>
+        <v>-120.16800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>61877.007376</v>
+        <v>61877.007376000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.188058</v>
+        <v>17.188058000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1256.820000</v>
+        <v>1256.82</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.296000</v>
+        <v>-138.29599999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>61888.095412</v>
+        <v>61888.095412000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.191138</v>
+        <v>17.191137999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1297.350000</v>
+        <v>1297.3499999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.876000</v>
+        <v>-221.876</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>61899.946325</v>
+        <v>61899.946324999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.194430</v>
+        <v>17.194430000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.872000</v>
+        <v>-359.87200000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>61910.663949</v>
+        <v>61910.663949000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.197407</v>
+        <v>17.197406999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1485.870000</v>
+        <v>1485.87</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-582.550000</v>
+        <v>-582.54999999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>61921.320457</v>
+        <v>61921.320457000002</v>
       </c>
       <c r="BT26" s="1">
         <v>17.200367</v>
       </c>
       <c r="BU26" s="1">
-        <v>1620.610000</v>
+        <v>1620.61</v>
       </c>
       <c r="BV26" s="1">
-        <v>-832.558000</v>
+        <v>-832.55799999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>61932.172926</v>
+        <v>61932.172925999999</v>
       </c>
       <c r="BY26" s="1">
         <v>17.203381</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1775.660000</v>
+        <v>1775.66</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1102.180000</v>
+        <v>-1102.18</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>61945.491464</v>
+        <v>61945.491463999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.207081</v>
+        <v>17.207080999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2198.040000</v>
+        <v>2198.04</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1753.230000</v>
+        <v>-1753.23</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>